--- a/excels/【Excel】2級.xlsx
+++ b/excels/【Excel】2級.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.13.36\課題回収\おくむら(Web1B)\012コウヨウ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012コウヨウ\Github\openforward\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42E3359-116D-4ABC-9462-853CD6BCEDC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493EC3C-B066-45ED-BFC0-5A8F1A79AD01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="11595" activeTab="1" xr2:uid="{B3AED297-72CF-436A-9771-C826CB3A11EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18225" windowHeight="10980" firstSheet="1" activeTab="3" xr2:uid="{B3AED297-72CF-436A-9771-C826CB3A11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2-1 完成例" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="307">
   <si>
     <t>商品別定価計算表</t>
     <rPh sb="0" eb="3">
@@ -1905,6 +1905,462 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>店頭販売</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通信販売</t>
+  </si>
+  <si>
+    <t>通信販売</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益総額</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>店頭比率</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益目標額テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モクヒョウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益目標額</t>
+  </si>
+  <si>
+    <t>店頭販売</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売一覧表（通信販売）</t>
+    <rPh sb="0" eb="5">
+      <t>ハンバイイチランヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評価表</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>両方とも２２万以上</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いずれか２２万以上</t>
+    <rPh sb="6" eb="7">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以外</t>
+    <rPh sb="0" eb="2">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>標準契約額テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>標準契約額</t>
+  </si>
+  <si>
+    <t>達成指数</t>
+  </si>
+  <si>
+    <t>営業手当の計算式</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テアテ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>510*契約数*達成指数/100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>490*契約数*達成指数/100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売手数料一覧表（B商品）</t>
+    <rPh sb="0" eb="5">
+      <t>ハンバイテスウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A商品</t>
+  </si>
+  <si>
+    <t>A商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B商品</t>
+  </si>
+  <si>
+    <t>B商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払総額一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウガク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売促進金</t>
+    <rPh sb="2" eb="4">
+      <t>ソクシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払総額</t>
+  </si>
+  <si>
+    <t>構成比率</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>標準平均売価</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前期</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広告費総額</t>
+    <rPh sb="0" eb="2">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広告費分配一覧表（後期）</t>
+    <rPh sb="0" eb="3">
+      <t>コウコクヒ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ブンパイイチランヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商CO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>週料金</t>
+  </si>
+  <si>
+    <t>R商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本加工賃</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1913,8 +2369,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1949,7 +2406,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2092,6 +2549,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2104,7 +2600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2156,9 +2652,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2197,6 +2690,69 @@
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3491,15 +4047,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -3712,18 +4268,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
@@ -4168,136 +4724,593 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471B6A2A-1F18-416B-946C-0BCCA10D14D4}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="C3" s="21">
+        <v>29380</v>
+      </c>
+      <c r="D3" s="4">
+        <f>IF(C3&gt;=27000,16.8%,IF(C3&gt;=25000,17.6%, 18.4%))</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E3" s="27">
+        <f>INT(C3*D3)</f>
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="21">
+        <v>25340</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D6" si="0">IF(C4&gt;=27000,16.8%,IF(C4&gt;=25000,17.6%, 18.4%))</f>
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E6" si="1">INT(C4*D4)</f>
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="B5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="21">
+        <v>27730</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="1"/>
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="B6" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="28">
+        <v>23160</v>
+      </c>
+      <c r="D6" s="44">
+        <f t="shared" si="0"/>
+        <v>0.184</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="1"/>
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="45" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C9" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" ref="D10:D17" si="2">VLOOKUP(C10,$A$3:$E$6,2,0)</f>
+        <v>製品G</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" ref="E10:E17" si="3">VLOOKUP(C10,$A$3:$E$6,5,0)</f>
+        <v>4658</v>
+      </c>
+      <c r="F10" s="2">
+        <v>280</v>
+      </c>
+      <c r="G10" s="2">
+        <v>260</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10:H17" si="4">ROUNDUP(G10/F10*100,0)</f>
+        <v>93</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" ref="I10:I17" si="5">ROUNDUP(E10*180*H10/100,0)</f>
+        <v>779750</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" ref="J10:J17" si="6">INT(E10*1.08*(G10-180))</f>
+        <v>402451</v>
+      </c>
+      <c r="K10" s="31">
+        <f t="shared" ref="K10:K17" si="7">I10+J10</f>
+        <v>1182201</v>
+      </c>
+      <c r="L10" s="10" t="str">
+        <f t="shared" ref="L10:L17" si="8">IF(AND(H10&gt;=90,K10&gt;=1000000),"A",IF(AND(H10&gt;=90,K10&gt;=860000),"B","C"))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>106</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>製品E</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="3"/>
+        <v>4935</v>
+      </c>
+      <c r="F11" s="2">
+        <v>259</v>
+      </c>
+      <c r="G11" s="2">
+        <v>236</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="5"/>
+        <v>817236</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="6"/>
+        <v>298468</v>
+      </c>
+      <c r="K11" s="31">
+        <f t="shared" si="7"/>
+        <v>1115704</v>
+      </c>
+      <c r="L11" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="C12" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>製品H</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="3"/>
+        <v>4261</v>
+      </c>
+      <c r="F12" s="2">
+        <v>291</v>
+      </c>
+      <c r="G12" s="2">
+        <v>258</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="5"/>
+        <v>682613</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="6"/>
+        <v>358946</v>
+      </c>
+      <c r="K12" s="31">
+        <f t="shared" si="7"/>
+        <v>1041559</v>
+      </c>
+      <c r="L12" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>製品F</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="3"/>
+        <v>4459</v>
+      </c>
+      <c r="F13" s="2">
+        <v>226</v>
+      </c>
+      <c r="G13" s="2">
+        <v>216</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="5"/>
+        <v>770516</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="6"/>
+        <v>173365</v>
+      </c>
+      <c r="K13" s="31">
+        <f t="shared" si="7"/>
+        <v>943881</v>
+      </c>
+      <c r="L13" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>103</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>製品F</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="3"/>
+        <v>4459</v>
+      </c>
+      <c r="F14" s="2">
+        <v>238</v>
+      </c>
+      <c r="G14" s="2">
+        <v>215</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="5"/>
+        <v>730385</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="6"/>
+        <v>168550</v>
+      </c>
+      <c r="K14" s="31">
+        <f t="shared" si="7"/>
+        <v>898935</v>
+      </c>
+      <c r="L14" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>製品E</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="3"/>
+        <v>4935</v>
+      </c>
+      <c r="F15" s="2">
+        <v>195</v>
+      </c>
+      <c r="G15" s="2">
+        <v>185</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="5"/>
+        <v>843885</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="6"/>
+        <v>26649</v>
+      </c>
+      <c r="K15" s="31">
+        <f t="shared" si="7"/>
+        <v>870534</v>
+      </c>
+      <c r="L15" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>105</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>製品G</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="3"/>
+        <v>4658</v>
+      </c>
+      <c r="F16" s="2">
+        <v>192</v>
+      </c>
+      <c r="G16" s="2">
+        <v>180</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="5"/>
+        <v>788134</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
+        <f t="shared" si="7"/>
+        <v>788134</v>
+      </c>
+      <c r="L16" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+      <c r="C17" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>製品H</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="3"/>
+        <v>4261</v>
+      </c>
+      <c r="F17" s="2">
+        <v>214</v>
+      </c>
+      <c r="G17" s="2">
+        <v>192</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="5"/>
+        <v>690282</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="6"/>
+        <v>55222</v>
+      </c>
+      <c r="K17" s="31">
+        <f t="shared" si="7"/>
+        <v>745504</v>
+      </c>
+      <c r="L17" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="28">
+        <f>SUM(F10:F17)</f>
+        <v>1895</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" ref="G19:K19" si="9">SUM(G10:G17)</f>
+        <v>1742</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28">
+        <f t="shared" si="9"/>
+        <v>6102801</v>
+      </c>
+      <c r="J19" s="28">
+        <f t="shared" si="9"/>
+        <v>1483651</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="9"/>
+        <v>7586452</v>
+      </c>
+      <c r="L19" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="A10:L17">
+    <sortCondition descending="1" ref="K9"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:L8"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4310,7 +5323,9 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5088,8 +6103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8709F5-3B4B-43F5-B3F0-C6EAA39E853F}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5105,18 +6120,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -5134,7 +6149,7 @@
       <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -5151,27 +6166,27 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>751</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>1289</v>
       </c>
       <c r="E3" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <f>INT(D3*C3*(1+E3))</f>
         <v>1003856</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <f>ROUNDUP(F3/C3*1.28,0)</f>
         <v>1711</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
@@ -5182,27 +6197,27 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>802</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>982</v>
       </c>
       <c r="E4" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <f t="shared" ref="F4:F7" si="0">INT(D4*C4*(1+E4))</f>
         <v>819854</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <f t="shared" ref="G4:G7" si="1">ROUNDUP(F4/C4*1.28,0)</f>
         <v>1309</v>
       </c>
       <c r="I4" s="8">
         <v>380</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
@@ -5213,27 +6228,27 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>463</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>1167</v>
       </c>
       <c r="E5" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <f t="shared" si="0"/>
         <v>566796</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <f t="shared" si="1"/>
         <v>1567</v>
       </c>
       <c r="I5" s="11">
         <v>440</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -5244,20 +6259,20 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>889</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>878</v>
       </c>
       <c r="E6" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>815666</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
@@ -5269,38 +6284,38 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>798</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>1324</v>
       </c>
       <c r="E7" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>1092474</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <f t="shared" si="1"/>
         <v>1753</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="27"/>
       <c r="I8" s="8">
         <v>1</v>
       </c>
@@ -5313,17 +6328,17 @@
       <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <f>SUM(C3:C7)</f>
         <v>3703</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="29">
-        <f t="shared" ref="D9:G9" si="2">SUM(F3:F7)</f>
+      <c r="F9" s="28">
+        <f t="shared" ref="F9" si="2">SUM(F3:F7)</f>
         <v>4298646</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="29"/>
       <c r="I9" s="8">
         <v>550000</v>
       </c>
@@ -5340,18 +6355,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -5399,22 +6414,22 @@
         <f>VLOOKUP(C14,$A$3:$G$7,2,FALSE)</f>
         <v>商品Z</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <f>VLOOKUP(C14,$A$3:$G$7,7,FALSE)</f>
         <v>1753</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>377</v>
       </c>
       <c r="G14" s="4">
         <f>IF(F14&gt;=440,7.6%,IF(F14&gt;=380,6.7%,5.8%))</f>
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <f>ROUNDUP(E14*(1-G14),0)</f>
         <v>1652</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="21">
         <f>H14*F14</f>
         <v>622804</v>
       </c>
@@ -5437,22 +6452,22 @@
         <f t="shared" ref="D15:D22" si="3">VLOOKUP(C15,$A$3:$G$7,2,FALSE)</f>
         <v>商品V</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <f t="shared" ref="E15:E22" si="4">VLOOKUP(C15,$A$3:$G$7,7,FALSE)</f>
         <v>1711</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>358</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" ref="G15:G22" si="5">IF(F15&gt;=440,7.6%,IF(F15&gt;=380,6.7%,5.8%))</f>
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <f t="shared" ref="H15:H22" si="6">ROUNDUP(E15*(1-G15),0)</f>
         <v>1612</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="21">
         <f t="shared" ref="I15:I22" si="7">H15*F15</f>
         <v>577096</v>
       </c>
@@ -5475,22 +6490,22 @@
         <f t="shared" si="3"/>
         <v>商品X</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <f t="shared" si="4"/>
         <v>1567</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>440</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="5"/>
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <f t="shared" si="6"/>
         <v>1448</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="21">
         <f t="shared" si="7"/>
         <v>637120</v>
       </c>
@@ -5513,22 +6528,22 @@
         <f t="shared" si="3"/>
         <v>商品W</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <f t="shared" si="4"/>
         <v>1309</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>325</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="5"/>
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <f t="shared" si="6"/>
         <v>1234</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <f t="shared" si="7"/>
         <v>401050</v>
       </c>
@@ -5551,22 +6566,22 @@
         <f t="shared" si="3"/>
         <v>商品W</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <f t="shared" si="4"/>
         <v>1309</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>465</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
         <f t="shared" si="6"/>
         <v>1210</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="21">
         <f t="shared" si="7"/>
         <v>562650</v>
       </c>
@@ -5589,22 +6604,22 @@
         <f t="shared" si="3"/>
         <v>商品Z</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <f t="shared" si="4"/>
         <v>1753</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>412</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="5"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <f t="shared" si="6"/>
         <v>1636</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <f t="shared" si="7"/>
         <v>674032</v>
       </c>
@@ -5627,22 +6642,22 @@
         <f t="shared" si="3"/>
         <v>商品Y</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <f t="shared" si="4"/>
         <v>1175</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>450</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="5"/>
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <f t="shared" si="6"/>
         <v>1086</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <f t="shared" si="7"/>
         <v>488700</v>
       </c>
@@ -5665,22 +6680,22 @@
         <f t="shared" si="3"/>
         <v>商品V</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <f t="shared" si="4"/>
         <v>1711</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <v>380</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <f t="shared" si="6"/>
         <v>1597</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="21">
         <f t="shared" si="7"/>
         <v>606860</v>
       </c>
@@ -5703,22 +6718,22 @@
         <f t="shared" si="3"/>
         <v>商品Y</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <f t="shared" si="4"/>
         <v>1175</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>423</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="5"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <f t="shared" si="6"/>
         <v>1097</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <f t="shared" si="7"/>
         <v>464031</v>
       </c>
@@ -5732,11 +6747,11 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -5746,15 +6761,15 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22">
+      <c r="E24" s="21"/>
+      <c r="F24" s="21">
         <f>SUM(F14:F22)</f>
         <v>3630</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22">
-        <f t="shared" ref="G24:I24" si="9">SUM(I14:I22)</f>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21">
+        <f t="shared" ref="I24" si="9">SUM(I14:I22)</f>
         <v>5034343</v>
       </c>
       <c r="J24" s="10"/>
@@ -5766,15 +6781,15 @@
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28">
         <f>AVERAGE(F14:F22)</f>
         <v>403.33333333333331</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29">
-        <f t="shared" ref="G25:I25" si="10">AVERAGE(I14:I22)</f>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28">
+        <f t="shared" ref="I25" si="10">AVERAGE(I14:I22)</f>
         <v>559371.4444444445</v>
       </c>
       <c r="J25" s="14"/>
@@ -5792,202 +6807,1505 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8703BE-16B1-43B7-B030-01114039E0DC}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="I2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1820</v>
+      </c>
+      <c r="D3" s="21">
+        <v>721</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1538</v>
+      </c>
+      <c r="F3" s="21">
+        <f>E3*1000-C3*D3</f>
+        <v>225780</v>
+      </c>
+      <c r="G3" s="27">
+        <f>ROUNDUP(F3/$J$4*100,0)</f>
+        <v>106</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1960</v>
+      </c>
+      <c r="D4" s="21">
+        <v>547</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1281</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F9" si="0">E4*1000-C4*D4</f>
+        <v>208880</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" ref="G4:G9" si="1">ROUNDUP(F4/$J$4*100,0)</f>
+        <v>99</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="J4" s="10">
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="B5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1730</v>
+      </c>
+      <c r="D5" s="21">
+        <v>568</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1164</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>181360</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="14">
+        <v>227000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="B6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2310</v>
+      </c>
+      <c r="D6" s="21">
+        <v>526</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1467</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>251940</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="B7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1670</v>
+      </c>
+      <c r="D7" s="21">
+        <v>634</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1236</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>177220</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="B8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2140</v>
+      </c>
+      <c r="D8" s="21">
+        <v>579</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1467</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>227940</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="B9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2080</v>
+      </c>
+      <c r="D9" s="21">
+        <v>672</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1619</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>221240</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="27"/>
+      <c r="I10" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28">
+        <f>SUM(D3:D9)</f>
+        <v>4247</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" ref="E11:F11" si="2">SUM(E3:E9)</f>
+        <v>9772</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="2"/>
+        <v>1494360</v>
+      </c>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1820</v>
+      </c>
+      <c r="D15" s="21">
+        <v>759</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1597</v>
+      </c>
+      <c r="F15" s="21">
+        <f>E15*1000-C15*D15</f>
+        <v>215620</v>
+      </c>
+      <c r="G15" s="27">
+        <f>ROUNDUP(F15/$J$5*100,0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1960</v>
+      </c>
+      <c r="D16" s="21">
+        <v>681</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1579</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" ref="F16:F21" si="3">E16*1000-C16*D16</f>
+        <v>244240</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" ref="G16:G21" si="4">ROUNDUP(F16/$J$5*100,0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1730</v>
+      </c>
+      <c r="D17" s="21">
+        <v>758</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1501</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="3"/>
+        <v>189660</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>104</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2310</v>
+      </c>
+      <c r="D18" s="21">
+        <v>613</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1702</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="3"/>
+        <v>285970</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>105</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1670</v>
+      </c>
+      <c r="D19" s="21">
+        <v>714</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1386</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="3"/>
+        <v>193620</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>106</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="21">
+        <v>2140</v>
+      </c>
+      <c r="D20" s="21">
+        <v>586</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1495</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="3"/>
+        <v>240960</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2080</v>
+      </c>
+      <c r="D21" s="21">
+        <v>717</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1741</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="3"/>
+        <v>249640</v>
+      </c>
+      <c r="G21" s="27">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28">
+        <f>SUM(D15:D21)</f>
+        <v>4828</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" ref="E23:F23" si="5">SUM(E15:E21)</f>
+        <v>11001</v>
+      </c>
+      <c r="F23" s="28">
+        <f t="shared" si="5"/>
+        <v>1619710</v>
+      </c>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="45" t="s">
         <v>42</v>
       </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <v>102</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="21">
+        <f t="shared" ref="C27:C33" si="6">VLOOKUP(A27,$A$3:$G$9,6,FALSE)</f>
+        <v>208880</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" ref="D27:D33" si="7">VLOOKUP(A27,$A$15:$G$21,6,FALSE)</f>
+        <v>244240</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" ref="E27:E33" si="8">C27+D27</f>
+        <v>453120</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ref="F27:F33" si="9">C27/E27</f>
+        <v>0.4609816384180791</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f t="shared" ref="G27:G33" si="10">IF(AND(C27&gt;=220000,D27&gt;=220000),"***",IF(OR(C27&gt;=220000,D27&gt;=220000),"**","*"))</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <v>104</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="6"/>
+        <v>251940</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" si="7"/>
+        <v>285970</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="8"/>
+        <v>537910</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="9"/>
+        <v>0.46836831440203752</v>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <v>107</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="6"/>
+        <v>221240</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="7"/>
+        <v>249640</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="8"/>
+        <v>470880</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="9"/>
+        <v>0.46984369690791711</v>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <v>105</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="6"/>
+        <v>177220</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="7"/>
+        <v>193620</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="8"/>
+        <v>370840</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="9"/>
+        <v>0.47788803796785678</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <v>106</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="6"/>
+        <v>227940</v>
+      </c>
+      <c r="D31" s="21">
+        <f t="shared" si="7"/>
+        <v>240960</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="8"/>
+        <v>468900</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="9"/>
+        <v>0.48611644273832372</v>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="6"/>
+        <v>181360</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="7"/>
+        <v>189660</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="8"/>
+        <v>371020</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="9"/>
+        <v>0.4888146191579969</v>
+      </c>
+      <c r="G32" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <v>101</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="21">
+        <f t="shared" si="6"/>
+        <v>225780</v>
+      </c>
+      <c r="D33" s="21">
+        <f t="shared" si="7"/>
+        <v>215620</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="8"/>
+        <v>441400</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="9"/>
+        <v>0.51150883552333481</v>
+      </c>
+      <c r="G33" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="32">
+        <f>SUM(C27:C33)</f>
+        <v>1494360</v>
+      </c>
+      <c r="D35" s="32">
+        <f t="shared" ref="D35:E35" si="11">SUM(D27:D33)</f>
+        <v>1619710</v>
+      </c>
+      <c r="E35" s="32">
+        <f t="shared" si="11"/>
+        <v>3114070</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="A27:G33">
+    <sortCondition ref="F26"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A25:G25"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD8670B-F522-4C5F-8886-27FFFDA4B1BA}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="H2" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C3" s="21">
+        <v>90</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2153000</v>
+      </c>
+      <c r="E3" s="21">
+        <f>INT(D3/C3)</f>
+        <v>23922</v>
+      </c>
+      <c r="F3" s="10">
+        <f>ROUND(E3/$I$3*100,0)</f>
+        <v>96</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" s="34">
+        <v>25000</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="C4" s="2">
+        <v>98</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2418000</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:E10" si="0">INT(D4/C4)</f>
+        <v>24673</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F10" si="1">ROUND(E4/$I$3*100,0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="C5" s="2">
+        <v>110</v>
+      </c>
+      <c r="D5" s="21">
+        <v>2931000</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="0"/>
+        <v>26645</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C6" s="2">
+        <v>67</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1862000</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>27791</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="C7" s="2">
+        <v>136</v>
+      </c>
+      <c r="D7" s="21">
+        <v>3178000</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>23367</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="H7" s="8">
+        <v>110</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C8" s="2">
+        <v>75</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1937000</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>25826</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="C9" s="2">
+        <v>120</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3046000</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>25383</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="C10" s="2">
+        <v>121</v>
+      </c>
+      <c r="D10" s="21">
+        <v>2735000</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>22603</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="C12" s="32">
+        <f>SUM(C3:C10)</f>
+        <v>817</v>
+      </c>
+      <c r="D12" s="32">
+        <f>SUM(D3:D10)</f>
+        <v>20260000</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="45" t="s">
         <v>57</v>
       </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
+      <c r="A15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="20" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" ref="D16:D23" si="2">2370*C16</f>
+        <v>14220</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" ref="E16:E23" si="3">5800*(C16-1)</f>
+        <v>29000</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" ref="F16:F23" si="4">VLOOKUP(A16,$A$3:$F$10,3,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" ref="G16:G23" si="5">VLOOKUP(A16,$A$3:$F$10,6,FALSE)</f>
+        <v>111</v>
+      </c>
+      <c r="H16" s="21">
+        <f>ROUNDUP(IF(F16&gt;=110, 510*F16*G16/100, 490*F16*G16/100),0)</f>
+        <v>36442</v>
+      </c>
+      <c r="I16" s="31">
+        <f t="shared" ref="I16:I23" si="6">D16+E16+H16</f>
+        <v>79662</v>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f t="shared" ref="J16:J23" si="7">IF(AND(G16&gt;=100,I16&gt;=140000),"***", IF(OR(G16&gt;=100,I16&gt;=140000),"**", "*"))</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2">
+        <v>11</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="2"/>
+        <v>26070</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="3"/>
+        <v>58000</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" ref="H17:H23" si="8">ROUNDUP(IF(F17&gt;=110, 510*F17*G17/100, 490*F17*G17/100),0)</f>
+        <v>60027</v>
+      </c>
+      <c r="I17" s="31">
+        <f t="shared" si="6"/>
+        <v>144097</v>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="2"/>
+        <v>16590</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="3"/>
+        <v>34800</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="8"/>
+        <v>37853</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="6"/>
+        <v>89243</v>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" si="2"/>
+        <v>28440</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="3"/>
+        <v>63800</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="8"/>
+        <v>62424</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="6"/>
+        <v>154664</v>
+      </c>
+      <c r="J19" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="2"/>
+        <v>21330</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="3"/>
+        <v>46400</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="8"/>
+        <v>47540</v>
+      </c>
+      <c r="I20" s="31">
+        <f t="shared" si="6"/>
+        <v>115270</v>
+      </c>
+      <c r="J20" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" si="2"/>
+        <v>18960</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="3"/>
+        <v>40600</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="8"/>
+        <v>42336</v>
+      </c>
+      <c r="I21" s="31">
+        <f t="shared" si="6"/>
+        <v>101896</v>
+      </c>
+      <c r="J21" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="2"/>
+        <v>30810</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="3"/>
+        <v>69600</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="8"/>
+        <v>64505</v>
+      </c>
+      <c r="I22" s="31">
+        <f t="shared" si="6"/>
+        <v>164915</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="2"/>
+        <v>23700</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="3"/>
+        <v>52200</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="8"/>
+        <v>55539</v>
+      </c>
+      <c r="I23" s="31">
+        <f t="shared" si="6"/>
+        <v>131439</v>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="32">
+        <f>SUM(D16:D23)</f>
+        <v>180120</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" ref="E25:I25" si="9">SUM(E16:E23)</f>
+        <v>394400</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="9"/>
+        <v>817</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32">
+        <f t="shared" si="9"/>
+        <v>406666</v>
+      </c>
+      <c r="I25" s="32">
+        <f t="shared" si="9"/>
+        <v>981186</v>
+      </c>
+      <c r="J25" s="14"/>
+    </row>
   </sheetData>
+  <sortState ref="A16:J23">
+    <sortCondition descending="1" ref="G15"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A14:J14"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5996,149 +8314,693 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6547BB1-A9E6-4770-A073-3E2893185823}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>11</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="21">
+        <v>709</v>
+      </c>
+      <c r="D3" s="21">
+        <f>INT(C3*1.06)</f>
+        <v>751</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1127</v>
+      </c>
+      <c r="F3" s="35">
+        <f>IF(OR(D3&gt;=800, E3&gt;=1200),23%,22%)</f>
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="27">
+        <f>ROUNDUP(E3*(1+F3),0)</f>
+        <v>1375</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>12</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="21">
+        <v>756</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" ref="D4:D7" si="0">INT(C4*1.06)</f>
+        <v>801</v>
+      </c>
+      <c r="E4" s="2">
+        <v>913</v>
+      </c>
+      <c r="F4" s="35">
+        <f t="shared" ref="F4:F7" si="1">IF(OR(D4&gt;=800, E4&gt;=1200),23%,22%)</f>
+        <v>0.23</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" ref="G4:G7" si="2">ROUNDUP(E4*(1+F4),0)</f>
+        <v>1123</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>13</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="21">
+        <v>437</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1034</v>
+      </c>
+      <c r="F5" s="35">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="2"/>
+        <v>1262</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>14</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="21">
+        <v>834</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>884</v>
+      </c>
+      <c r="E6" s="2">
+        <v>856</v>
+      </c>
+      <c r="F6" s="35">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="2"/>
+        <v>1053</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="B7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="21">
+        <v>752</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>797</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1218</v>
+      </c>
+      <c r="F7" s="35">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="2"/>
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="C9" s="28">
+        <f>SUM(C3:C7)</f>
+        <v>3488</v>
+      </c>
+      <c r="D9" s="28">
+        <f>SUM(D3:D7)</f>
+        <v>3696</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="45" t="s">
         <v>67</v>
       </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="C12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="A13" s="8">
+        <v>107</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" ref="D13:D21" si="3">VLOOKUP(C13,$A$3:$G$7,2,FALSE)</f>
+        <v>商品B</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" ref="E13:E21" si="4">VLOOKUP(C13,$A$3:$G$7,7,FALSE)</f>
+        <v>1123</v>
+      </c>
+      <c r="F13" s="21">
+        <v>319</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" ref="G13:G21" si="5">INT(F13*0.7)</f>
+        <v>223</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" ref="H13:H21" si="6">E13*G13</f>
+        <v>250429</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" ref="I13:I21" si="7">INT(E13*(F13-G13)*80%)</f>
+        <v>86246</v>
+      </c>
+      <c r="J13" s="31">
+        <f t="shared" ref="J13:J21" si="8">H13+I13</f>
+        <v>336675</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f t="shared" ref="K13:K21" si="9">IF(AND(NOT(C13=12),J13&gt;=480000),"A",IF(OR(NOT(C13=12),J13&gt;=480000),"B","C"))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>商品A</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="4"/>
+        <v>1375</v>
+      </c>
+      <c r="F14" s="21">
+        <v>356</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="5"/>
+        <v>249</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="6"/>
+        <v>342375</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="7"/>
+        <v>117700</v>
+      </c>
+      <c r="J14" s="31">
+        <f t="shared" si="8"/>
+        <v>460075</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>商品E</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="4"/>
+        <v>1499</v>
+      </c>
+      <c r="F15" s="21">
+        <v>370</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="5"/>
+        <v>259</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="6"/>
+        <v>388241</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="7"/>
+        <v>133111</v>
+      </c>
+      <c r="J15" s="31">
+        <f t="shared" si="8"/>
+        <v>521352</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>106</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>商品A</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="4"/>
+        <v>1375</v>
+      </c>
+      <c r="F16" s="21">
+        <v>381</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="5"/>
+        <v>266</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="6"/>
+        <v>365750</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="7"/>
+        <v>126500</v>
+      </c>
+      <c r="J16" s="31">
+        <f t="shared" si="8"/>
+        <v>492250</v>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>105</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>商品D</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="4"/>
+        <v>1053</v>
+      </c>
+      <c r="F17" s="21">
+        <v>415</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="6"/>
+        <v>305370</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="7"/>
+        <v>105300</v>
+      </c>
+      <c r="J17" s="31">
+        <f t="shared" si="8"/>
+        <v>410670</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>108</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>商品E</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="4"/>
+        <v>1499</v>
+      </c>
+      <c r="F18" s="21">
+        <v>416</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="6"/>
+        <v>436209</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="7"/>
+        <v>149900</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="8"/>
+        <v>586109</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>104</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>商品C</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="4"/>
+        <v>1262</v>
+      </c>
+      <c r="F19" s="21">
+        <v>434</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="6"/>
+        <v>382386</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="7"/>
+        <v>132257</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="8"/>
+        <v>514643</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>103</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+      <c r="C20" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>商品D</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="4"/>
+        <v>1053</v>
+      </c>
+      <c r="F20" s="21">
+        <v>452</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="5"/>
+        <v>316</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="6"/>
+        <v>332748</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="7"/>
+        <v>114566</v>
+      </c>
+      <c r="J20" s="31">
+        <f t="shared" si="8"/>
+        <v>447314</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>109</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>商品B</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="4"/>
+        <v>1123</v>
+      </c>
+      <c r="F21" s="21">
+        <v>460</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="5"/>
+        <v>322</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="6"/>
+        <v>361606</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="7"/>
+        <v>123979</v>
+      </c>
+      <c r="J21" s="31">
+        <f t="shared" si="8"/>
+        <v>485585</v>
+      </c>
+      <c r="K21" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="32">
+        <f>SUM(F13:F21)</f>
+        <v>3603</v>
+      </c>
+      <c r="G23" s="32">
+        <f t="shared" ref="G23:J23" si="10">SUM(G13:G21)</f>
+        <v>2519</v>
+      </c>
+      <c r="H23" s="32">
+        <f t="shared" si="10"/>
+        <v>3165114</v>
+      </c>
+      <c r="I23" s="32">
+        <f t="shared" si="10"/>
+        <v>1089559</v>
+      </c>
+      <c r="J23" s="32">
+        <f t="shared" si="10"/>
+        <v>4254673</v>
+      </c>
+      <c r="K23" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="A13:K21">
+    <sortCondition ref="F12"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:K11"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6149,80 +9011,811 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="24" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="H2" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="C3" s="21">
+        <v>3112</v>
+      </c>
+      <c r="D3" s="21">
+        <v>3032</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" ref="E3:E9" si="0">$I$4*D3</f>
+        <v>2207296</v>
+      </c>
+      <c r="F3" s="27">
+        <f>IF(E3&gt;=2000000,E3*11.4%,E3*12.3% )</f>
+        <v>251631.74400000001</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="C4" s="21">
+        <v>3324</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3261</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="0"/>
+        <v>2374008</v>
+      </c>
+      <c r="F4" s="27">
+        <f t="shared" ref="F4:F9" si="1">IF(E4&gt;=2000000,E4*11.4%,E4*12.3% )</f>
+        <v>270636.91200000001</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="10">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="C5" s="21">
+        <v>2296</v>
+      </c>
+      <c r="D5" s="21">
+        <v>2225</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="0"/>
+        <v>1619800</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" si="1"/>
+        <v>199235.40000000002</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="14">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="C6" s="21">
+        <v>2676</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2609</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>1899352</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="1"/>
+        <v>233620.29600000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="C7" s="21">
+        <v>2808</v>
+      </c>
+      <c r="D7" s="21">
+        <v>2716</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>1977248</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="1"/>
+        <v>243201.50400000002</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="C8" s="21">
+        <v>3319</v>
+      </c>
+      <c r="D8" s="21">
+        <v>3260</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>2373280</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="1"/>
+        <v>270553.92</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="C9" s="21">
+        <v>2740</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2643</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>1924104</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="1"/>
+        <v>236664.79200000002</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="C11" s="28">
+        <f>SUM(C3:C9)</f>
+        <v>20275</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" ref="D11:F11" si="2">SUM(D3:D9)</f>
+        <v>19746</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="2"/>
+        <v>14375088</v>
+      </c>
+      <c r="F11" s="29">
+        <f t="shared" si="2"/>
+        <v>1705544.568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2771</v>
+      </c>
+      <c r="D15" s="21">
+        <v>2683</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" ref="E15:E21" si="3">$I$4*D15</f>
+        <v>1953224</v>
+      </c>
+      <c r="F15" s="27">
+        <f>IF(E15&gt;=2000000,E15*11.4%,E15*12.3% )</f>
+        <v>240246.55200000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2937</v>
+      </c>
+      <c r="D16" s="21">
+        <v>2873</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="3"/>
+        <v>2091544</v>
+      </c>
+      <c r="F16" s="27">
+        <f t="shared" ref="F16:F21" si="4">IF(E16&gt;=2000000,E16*11.4%,E16*12.3% )</f>
+        <v>238436.016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="21">
+        <v>2657</v>
+      </c>
+      <c r="D17" s="21">
+        <v>2596</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="3"/>
+        <v>1889888</v>
+      </c>
+      <c r="F17" s="27">
+        <f t="shared" si="4"/>
+        <v>232456.22400000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>104</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2223</v>
+      </c>
+      <c r="D18" s="21">
+        <v>2150</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="3"/>
+        <v>1565200</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="4"/>
+        <v>192519.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>105</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="21">
+        <v>3304</v>
+      </c>
+      <c r="D19" s="21">
+        <v>3214</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="3"/>
+        <v>2339792</v>
+      </c>
+      <c r="F19" s="27">
+        <f t="shared" si="4"/>
+        <v>266736.288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>106</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="21">
+        <v>2139</v>
+      </c>
+      <c r="D20" s="21">
+        <v>2078</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="3"/>
+        <v>1512784</v>
+      </c>
+      <c r="F20" s="27">
+        <f t="shared" si="4"/>
+        <v>186072.43200000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2455</v>
+      </c>
+      <c r="D21" s="21">
+        <v>2375</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="3"/>
+        <v>1729000</v>
+      </c>
+      <c r="F21" s="27">
+        <f t="shared" si="4"/>
+        <v>212667.00000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="28">
+        <f>SUM(C15:C21)</f>
+        <v>18486</v>
+      </c>
+      <c r="D23" s="28">
+        <f t="shared" ref="D23:F23" si="5">SUM(D15:D21)</f>
+        <v>17969</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="5"/>
+        <v>13081432</v>
+      </c>
+      <c r="F23" s="29">
+        <f t="shared" si="5"/>
+        <v>1569134.112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="21">
+        <f>VLOOKUP(A27,$A$3:$F$9,6,0)</f>
+        <v>251631.74400000001</v>
+      </c>
+      <c r="D27" s="21">
+        <f>VLOOKUP(A27,$A$15:$F$21,6,0)</f>
+        <v>240246.55200000003</v>
+      </c>
+      <c r="E27" s="21">
+        <f>INT((C27+D27)*5.7%)</f>
+        <v>28037</v>
+      </c>
+      <c r="F27" s="31">
+        <f>C27+D27+E27</f>
+        <v>519915.29600000003</v>
+      </c>
+      <c r="G27" s="4">
+        <f>F27/$F$35</f>
+        <v>0.15020672506022306</v>
+      </c>
+      <c r="H27" s="10" t="str">
+        <f>IF(AND(C27&gt;=$C$36,D27&gt;=$D$36),"###",IF(OR(C27&gt;=$C$36,D27&gt;=$D$36),"##", "#"))</f>
+        <v>###</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" ref="C28:C33" si="6">VLOOKUP(A28,$A$3:$F$9,6,0)</f>
+        <v>270636.91200000001</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" ref="D28:D33" si="7">VLOOKUP(A28,$A$15:$F$21,6,0)</f>
+        <v>238436.016</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" ref="E28:E33" si="8">INT((C28+D28)*5.7%)</f>
+        <v>29017</v>
+      </c>
+      <c r="F28" s="31">
+        <f t="shared" ref="F28:F33" si="9">C28+D28+E28</f>
+        <v>538089.92800000007</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28:G33" si="10">F28/$F$35</f>
+        <v>0.15545748796890799</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f t="shared" ref="H28:H33" si="11">IF(AND(C28&gt;=$C$36,D28&gt;=$D$36),"###",IF(OR(C28&gt;=$C$36,D28&gt;=$D$36),"##", "#"))</f>
+        <v>###</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <v>103</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="6"/>
+        <v>199235.40000000002</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="7"/>
+        <v>232456.22400000002</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="8"/>
+        <v>24606</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" si="9"/>
+        <v>456297.62400000007</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="10"/>
+        <v>0.13182718854611472</v>
+      </c>
+      <c r="H29" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>##</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="6"/>
+        <v>233620.29600000003</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="7"/>
+        <v>192519.6</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="8"/>
+        <v>24289</v>
+      </c>
+      <c r="F30" s="31">
+        <f t="shared" si="9"/>
+        <v>450428.89600000007</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="10"/>
+        <v>0.1301316769504158</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>#</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <v>105</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="6"/>
+        <v>243201.50400000002</v>
+      </c>
+      <c r="D31" s="21">
+        <f t="shared" si="7"/>
+        <v>266736.288</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="8"/>
+        <v>29066</v>
+      </c>
+      <c r="F31" s="31">
+        <f t="shared" si="9"/>
+        <v>539003.79200000002</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="10"/>
+        <v>0.15572150889625233</v>
+      </c>
+      <c r="H31" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>##</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <v>106</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="6"/>
+        <v>270553.92</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="7"/>
+        <v>186072.43200000003</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="8"/>
+        <v>26027</v>
+      </c>
+      <c r="F32" s="31">
+        <f t="shared" si="9"/>
+        <v>482653.35200000001</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="10"/>
+        <v>0.13944152038038723</v>
+      </c>
+      <c r="H32" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>##</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <v>107</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="21">
+        <f t="shared" si="6"/>
+        <v>236664.79200000002</v>
+      </c>
+      <c r="D33" s="21">
+        <f t="shared" si="7"/>
+        <v>212667.00000000003</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="8"/>
+        <v>25611</v>
+      </c>
+      <c r="F33" s="31">
+        <f t="shared" si="9"/>
+        <v>474942.79200000002</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="10"/>
+        <v>0.13721389219769889</v>
+      </c>
+      <c r="H33" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>#</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="31">
+        <f>SUM(C27:C33)</f>
+        <v>1705544.568</v>
+      </c>
+      <c r="D35" s="31">
+        <f t="shared" ref="D35:F35" si="12">SUM(D27:D33)</f>
+        <v>1569134.112</v>
+      </c>
+      <c r="E35" s="31">
+        <f t="shared" si="12"/>
+        <v>186653</v>
+      </c>
+      <c r="F35" s="31">
+        <f t="shared" si="12"/>
+        <v>3461331.68</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="32">
+        <f>AVERAGE(C27:C33)</f>
+        <v>243649.22399999999</v>
+      </c>
+      <c r="D36" s="32">
+        <f t="shared" ref="D36:F36" si="13">AVERAGE(D27:D33)</f>
+        <v>224162.016</v>
+      </c>
+      <c r="E36" s="32">
+        <f t="shared" si="13"/>
+        <v>26664.714285714286</v>
+      </c>
+      <c r="F36" s="32">
+        <f t="shared" si="13"/>
+        <v>494475.95428571431</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A25:H25"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6233,83 +9826,550 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="C3" s="21">
+        <v>412</v>
+      </c>
+      <c r="D3" s="21">
+        <v>6014</v>
+      </c>
+      <c r="E3" s="35">
+        <f>D3*1000/C3/$J$4</f>
+        <v>1.1280593028315902</v>
+      </c>
+      <c r="F3" s="2">
+        <f>ROUND(D3/$D$11*100,0)</f>
+        <v>16</v>
+      </c>
+      <c r="G3" s="27">
+        <f>$J$9*F3/100</f>
+        <v>384000</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="C4" s="21">
+        <v>335</v>
+      </c>
+      <c r="D4" s="21">
+        <v>4408</v>
+      </c>
+      <c r="E4" s="35">
+        <f t="shared" ref="E4:E9" si="0">D4*1000/C4/$J$4</f>
+        <v>1.0168631340976724</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F9" si="1">ROUND(D4/$D$11*100,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" ref="G4:G9" si="2">$J$9*F4/100</f>
+        <v>264000</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="J4" s="27">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="C5" s="21">
+        <v>424</v>
+      </c>
+      <c r="D5" s="21">
+        <v>5266</v>
+      </c>
+      <c r="E5" s="35">
+        <f t="shared" si="0"/>
+        <v>0.9597999475080925</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="2"/>
+        <v>336000</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="J5" s="29">
+        <v>13667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="C6" s="21">
+        <v>336</v>
+      </c>
+      <c r="D6" s="21">
+        <v>4032</v>
+      </c>
+      <c r="E6" s="35">
+        <f t="shared" si="0"/>
+        <v>0.92735703245749612</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="2"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="C7" s="21">
+        <v>440</v>
+      </c>
+      <c r="D7" s="21">
+        <v>6105</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" si="0"/>
+        <v>1.07225656877898</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="2"/>
+        <v>384000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="C8" s="21">
+        <v>449</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5697</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" si="0"/>
+        <v>0.98054064846146161</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="C9" s="21">
+        <v>598</v>
+      </c>
+      <c r="D9" s="21">
+        <v>7080</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="0"/>
+        <v>0.91495091831090758</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="2"/>
+        <v>432000</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" s="27">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="I10" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" s="29">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="C11" s="28">
+        <f>SUM(C3:C9)</f>
+        <v>2994</v>
+      </c>
+      <c r="D11" s="28">
+        <f>SUM(D3:D9)</f>
+        <v>38602</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29">
+        <f t="shared" ref="G11" si="3">SUM(G3:G9)</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="21">
+        <v>455</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6403</v>
+      </c>
+      <c r="E15" s="35">
+        <f>D15*1000/C15/$J$5</f>
+        <v>1.0296720181844934</v>
+      </c>
+      <c r="F15" s="2">
+        <f>ROUND(D15/$D$23*100,0)</f>
+        <v>16</v>
+      </c>
+      <c r="G15" s="27">
+        <f>$J$10*F15/100</f>
+        <v>448000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="21">
+        <v>362</v>
+      </c>
+      <c r="D16" s="21">
+        <v>5295</v>
+      </c>
+      <c r="E16" s="35">
+        <f t="shared" ref="E16:E21" si="4">D16*1000/C16/$J$5</f>
+        <v>1.0702474444431418</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:F21" si="5">ROUND(D16/$D$23*100,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" ref="G16:G21" si="6">$J$10*F16/100</f>
+        <v>364000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="21">
+        <v>443</v>
+      </c>
+      <c r="D17" s="21">
+        <v>5931</v>
+      </c>
+      <c r="E17" s="35">
+        <f t="shared" si="4"/>
+        <v>0.97960502312254338</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="6"/>
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="21">
+        <v>321</v>
+      </c>
+      <c r="D18" s="21">
+        <v>4529</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="4"/>
+        <v>1.0323431819647892</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="6"/>
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="21">
+        <v>387</v>
+      </c>
+      <c r="D19" s="21">
+        <v>4967</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="4"/>
+        <v>0.93909602129197445</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="6"/>
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="21">
+        <v>464</v>
+      </c>
+      <c r="D20" s="21">
+        <v>6012</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="4"/>
+        <v>0.94804247835839162</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="6"/>
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="21">
+        <v>538</v>
+      </c>
+      <c r="D21" s="21">
+        <v>7359</v>
+      </c>
+      <c r="E21" s="35">
+        <f t="shared" si="4"/>
+        <v>1.0008369548335434</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G21" s="27">
+        <f t="shared" si="6"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="28">
+        <f>SUM(C15:C21)</f>
+        <v>2970</v>
+      </c>
+      <c r="D23" s="28">
+        <f>SUM(D15:D21)</f>
+        <v>40496</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29">
+        <f t="shared" ref="G23" si="7">SUM(G15:G21)</f>
+        <v>2800000</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:G13"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6320,261 +10380,1403 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="50" t="s">
         <v>106</v>
       </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="40" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>11</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2784500</v>
+      </c>
+      <c r="D3" s="4">
+        <f>IF(C3&gt;=2900000,2.9%,IF(C3&gt;=2200000,2.7%,2.5%))</f>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="E3" s="21">
+        <f>ROUNDUP(C3*D3,0)</f>
+        <v>75182</v>
+      </c>
+      <c r="F3" s="21">
+        <f>INT(E3*4.6%)</f>
+        <v>3458</v>
+      </c>
+      <c r="G3" s="41">
+        <f>E3+F3</f>
+        <v>78640</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>12</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1966600</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D7" si="0">IF(C4&gt;=2900000,2.9%,IF(C4&gt;=2200000,2.7%,2.5%))</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:E7" si="1">ROUNDUP(C4*D4,0)</f>
+        <v>49165</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F7" si="2">INT(E4*4.6%)</f>
+        <v>2261</v>
+      </c>
+      <c r="G4" s="41">
+        <f t="shared" ref="G4:G7" si="3">E4+F4</f>
+        <v>51426</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>13</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="21">
+        <v>3107900</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="1"/>
+        <v>90130</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="2"/>
+        <v>4145</v>
+      </c>
+      <c r="G5" s="41">
+        <f t="shared" si="3"/>
+        <v>94275</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>14</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2345300</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="1"/>
+        <v>63324</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="2"/>
+        <v>2912</v>
+      </c>
+      <c r="G6" s="41">
+        <f t="shared" si="3"/>
+        <v>66236</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="B7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3271200</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="1"/>
+        <v>94865</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="2"/>
+        <v>4363</v>
+      </c>
+      <c r="G7" s="41">
+        <f t="shared" si="3"/>
+        <v>99228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="C9" s="32">
+        <f>AVERAGE(C3:C7)</f>
+        <v>2695100</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32">
+        <f t="shared" ref="E9:G9" si="4">AVERAGE(E3:E7)</f>
+        <v>74533.2</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="4"/>
+        <v>3427.8</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="4"/>
+        <v>77961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="45" t="s">
         <v>112</v>
       </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="A12" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="40" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="A13" s="8">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" ref="D13:D18" si="5">VLOOKUP(C13,$A$3:$G$7,2,)</f>
+        <v>K商品</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" ref="F13:F20" si="6">VLOOKUP(C13,$A$3:$G$7,7,FALSE )</f>
+        <v>51426</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" ref="G13:G20" si="7">ROUNDUP(F13/7*(E13-7)*0.45, 0)</f>
+        <v>6612</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" ref="I13:I20" si="8">IF(H13=1,8650,IF(H13=2,7920, IF(H13=3,6480,0)))</f>
+        <v>6480</v>
+      </c>
+      <c r="J13" s="31">
+        <f t="shared" ref="J13:J20" si="9">F13+G13+I13</f>
+        <v>64518</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f t="shared" ref="K13:K20" si="10">IF(AND(NOT(H13=2),J13&gt;=120000),"V",IF(AND(NOT(H13=2),J13&gt;=100000),"W","X"))</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>102</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>K商品</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="6"/>
+        <v>51426</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="7"/>
+        <v>9918</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="8"/>
+        <v>8650</v>
+      </c>
+      <c r="J14" s="31">
+        <f t="shared" si="9"/>
+        <v>69994</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>M商品</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="6"/>
+        <v>66236</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="7"/>
+        <v>25549</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="8"/>
+        <v>8650</v>
+      </c>
+      <c r="J15" s="31">
+        <f t="shared" si="9"/>
+        <v>100435</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>106</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>N商品</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="6"/>
+        <v>99228</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="8"/>
+        <v>7920</v>
+      </c>
+      <c r="J16" s="31">
+        <f t="shared" si="9"/>
+        <v>107148</v>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>L商品</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="6"/>
+        <v>94275</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="7"/>
+        <v>6061</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="8"/>
+        <v>8650</v>
+      </c>
+      <c r="J17" s="31">
+        <f t="shared" si="9"/>
+        <v>108986</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>107</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>J商品</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="6"/>
+        <v>78640</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="7"/>
+        <v>35388</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="8"/>
+        <v>6480</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="9"/>
+        <v>120508</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>101</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+      <c r="C19" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>VLOOKUP(C19,$A$3:$G$7,2,FALSE)</f>
+        <v>L商品</v>
+      </c>
+      <c r="E19" s="2">
+        <v>11</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="6"/>
+        <v>94275</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="7"/>
+        <v>24243</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="8"/>
+        <v>6480</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="9"/>
+        <v>124998</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>103</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>VLOOKUP(C20,$A$3:$G$7,2,)</f>
+        <v>N商品</v>
+      </c>
+      <c r="E20" s="2">
+        <v>12</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="6"/>
+        <v>99228</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="7"/>
+        <v>31895</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="8"/>
+        <v>7920</v>
+      </c>
+      <c r="J20" s="31">
+        <f t="shared" si="9"/>
+        <v>139043</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="28">
+        <f>SUM(E13:E20)</f>
+        <v>84</v>
+      </c>
+      <c r="F22" s="28">
+        <f t="shared" ref="F22:J22" si="11">SUM(F13:F20)</f>
+        <v>634734</v>
+      </c>
+      <c r="G22" s="28">
+        <f t="shared" si="11"/>
+        <v>139666</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28">
+        <f t="shared" si="11"/>
+        <v>61230</v>
+      </c>
+      <c r="J22" s="28">
+        <f t="shared" si="11"/>
+        <v>835630</v>
+      </c>
+      <c r="K22" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="A13:K20">
+    <sortCondition ref="J13"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:K11"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91E3F0D-8FD8-447D-80A7-F07ADEA2BF34}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="40" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="L2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>VLOOKUP(C3,$L$3:$N$6,2,0)</f>
+        <v>S商品</v>
+      </c>
+      <c r="E3" s="21">
+        <f>VLOOKUP(C3,$L$3:$N$6,3,0)</f>
+        <v>7340</v>
+      </c>
+      <c r="F3" s="43">
+        <v>45109</v>
+      </c>
+      <c r="G3" s="43">
+        <v>45117</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3-F3+1</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="27">
+        <f>INT(IF(H3&lt;=7,E3*7,E3*7*0.92))</f>
+        <v>47269</v>
+      </c>
+      <c r="L3" s="8">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N3" s="27">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="C4" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" ref="D4:D9" si="0">VLOOKUP(C4,$L$3:$N$6,2,0)</f>
+        <v>T商品</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:E9" si="1">VLOOKUP(C4,$L$3:$N$6,3,0)</f>
+        <v>8280</v>
+      </c>
+      <c r="F4" s="43">
+        <v>45112</v>
+      </c>
+      <c r="G4" s="43">
+        <v>45120</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H9" si="2">G4-F4+1</f>
+        <v>9</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" ref="I4:I9" si="3">INT(IF(H4&lt;=7,E4*7,E4*7*0.92))</f>
+        <v>53323</v>
+      </c>
+      <c r="L4" s="8">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N4" s="27">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="C5" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>R商品</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="1"/>
+        <v>8670</v>
+      </c>
+      <c r="F5" s="43">
+        <v>45114</v>
+      </c>
+      <c r="G5" s="43">
+        <v>45121</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="3"/>
+        <v>55834</v>
+      </c>
+      <c r="L5" s="8">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="N5" s="27">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>T商品</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="1"/>
+        <v>8280</v>
+      </c>
+      <c r="F6" s="43">
+        <v>45117</v>
+      </c>
+      <c r="G6" s="43">
+        <v>45123</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="3"/>
+        <v>57960</v>
+      </c>
+      <c r="L6" s="11">
+        <v>14</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="N6" s="29">
+        <v>9630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>S商品</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="1"/>
+        <v>7340</v>
+      </c>
+      <c r="F7" s="43">
+        <v>45120</v>
+      </c>
+      <c r="G7" s="43">
+        <v>45132</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="3"/>
+        <v>47269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="C8" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>U商品</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="1"/>
+        <v>9630</v>
+      </c>
+      <c r="F8" s="43">
+        <v>45122</v>
+      </c>
+      <c r="G8" s="43">
+        <v>45133</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="3"/>
+        <v>62017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="C9" s="2">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>R商品</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="1"/>
+        <v>8670</v>
+      </c>
+      <c r="F9" s="43">
+        <v>45125</v>
+      </c>
+      <c r="G9" s="43">
+        <v>45135</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="3"/>
+        <v>55834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32">
+        <f t="shared" ref="H11:I11" si="4">SUM(H3:H9)</f>
+        <v>69</v>
+      </c>
+      <c r="I11" s="42">
+        <f t="shared" si="4"/>
+        <v>379506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="45" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E14" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="40" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:C21" si="5">VLOOKUP(A15,$A$3:$I$9,8,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" ref="D15:D21" si="6">VLOOKUP(A15,$A$3:$I$9,9,0)</f>
+        <v>57960</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" ref="E15:E21" si="7">ROUNDUP(D15/7*(C15-7)*0.86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" ref="F15:F21" si="8">ROUNDUP((D15+E15)*3.4%,0)</f>
+        <v>1971</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:G21" si="9">IF(C15&gt;=11,5.8%,IF(C15&gt;=8,4.6%,3.4%))</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" ref="H15:H21" si="10">INT((D15+E15)*G15)</f>
+        <v>1970</v>
+      </c>
+      <c r="I15" s="31">
+        <f t="shared" ref="I15:I21" si="11">D15+E15+F15-H15</f>
+        <v>57961</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" ref="J15:J21" si="12">IF(AND(C15&lt;13,I15&gt;=70000),"***",IF(AND(C15&lt;13,I15&gt;=60000),"**","*"))</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>101</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" si="6"/>
+        <v>47269</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="7"/>
+        <v>11615</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="8"/>
+        <v>2003</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="10"/>
+        <v>2708</v>
+      </c>
+      <c r="I16" s="31">
+        <f t="shared" si="11"/>
+        <v>58179</v>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="6"/>
+        <v>55834</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="7"/>
+        <v>6860</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="8"/>
+        <v>2132</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="10"/>
+        <v>2883</v>
+      </c>
+      <c r="I17" s="31">
+        <f t="shared" si="11"/>
+        <v>61943</v>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="6"/>
+        <v>53323</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="7"/>
+        <v>13103</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="8"/>
+        <v>2259</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="10"/>
+        <v>3055</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="11"/>
+        <v>65630</v>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>105</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" si="6"/>
+        <v>47269</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="7"/>
+        <v>34845</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="8"/>
+        <v>2792</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="9"/>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="10"/>
+        <v>4762</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="11"/>
+        <v>80144</v>
+      </c>
+      <c r="J19" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>107</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="6"/>
+        <v>55834</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="7"/>
+        <v>27439</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="8"/>
+        <v>2832</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="9"/>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="10"/>
+        <v>4829</v>
+      </c>
+      <c r="I20" s="31">
+        <f t="shared" si="11"/>
+        <v>81276</v>
+      </c>
+      <c r="J20" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>106</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" si="6"/>
+        <v>62017</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="7"/>
+        <v>38097</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="8"/>
+        <v>3404</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="9"/>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="10"/>
+        <v>5806</v>
+      </c>
+      <c r="I21" s="31">
+        <f t="shared" si="11"/>
+        <v>97712</v>
+      </c>
+      <c r="J21" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="28">
+        <f>SUM(C15:C21)</f>
+        <v>69</v>
+      </c>
+      <c r="D23" s="28">
+        <f t="shared" ref="D23:I23" si="13">SUM(D15:D21)</f>
+        <v>379506</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="13"/>
+        <v>131959</v>
+      </c>
+      <c r="F23" s="28">
+        <f t="shared" si="13"/>
+        <v>17393</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28">
+        <f t="shared" si="13"/>
+        <v>26013</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" si="13"/>
+        <v>502845</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
   </sheetData>
+  <sortState ref="A15:J21">
+    <sortCondition ref="I14"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A13:J13"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excels/【Excel】2級.xlsx
+++ b/excels/【Excel】2級.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012コウヨウ\Github\openforward\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.13.36\課題回収\おくむら(Web1B)\012コウヨウ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493EC3C-B066-45ED-BFC0-5A8F1A79AD01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80311E2-4E7F-4C93-A6B7-79498CC08A18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18225" windowHeight="10980" firstSheet="1" activeTab="3" xr2:uid="{B3AED297-72CF-436A-9771-C826CB3A11EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10980" firstSheet="1" activeTab="12" xr2:uid="{B3AED297-72CF-436A-9771-C826CB3A11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2-1 完成例" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="326">
   <si>
     <t>商品別定価計算表</t>
     <rPh sb="0" eb="3">
@@ -1374,27 +1374,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員別</t>
-    <rPh sb="0" eb="3">
-      <t>しゃいんべつ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>作業</t>
-    <rPh sb="0" eb="2">
-      <t>さぎょう</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>表</t>
-    <rPh sb="0" eb="1">
-      <t>ひょう</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
     <t>社員名</t>
     <rPh sb="0" eb="3">
       <t>しゃいんめい</t>
@@ -1518,13 +1497,6 @@
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
-    <t>出来高給</t>
-    <rPh sb="0" eb="4">
-      <t>できだかきゅう</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
     <t>勤勉手当</t>
     <rPh sb="0" eb="4">
       <t>きんべんてあて</t>
@@ -1546,30 +1518,6 @@
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
-    <t>比較</t>
-    <rPh sb="0" eb="2">
-      <t>ひかく</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>輸入品</t>
-    <rPh sb="0" eb="3">
-      <t>ゆにゅうひん</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>売上一覧表</t>
-    <rPh sb="0" eb="2">
-      <t>うりあげ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>いちらんひょう</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
     <t>取CO</t>
     <rPh sb="0" eb="1">
       <t>とり</t>
@@ -1598,13 +1546,6 @@
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
-    <t>原価</t>
-    <rPh sb="0" eb="2">
-      <t>げんか</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
     <t>定価</t>
     <rPh sb="0" eb="2">
       <t>ていか</t>
@@ -1708,9 +1649,688 @@
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
-    <t>請求額</t>
+    <t>商談数</t>
+    <rPh sb="0" eb="2">
+      <t>しょうだん</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>すう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>契約数</t>
     <rPh sb="0" eb="3">
-      <t>せいきゅうがく</t>
+      <t>けいやくすう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>契約率</t>
+    <rPh sb="0" eb="3">
+      <t>けいやくりつ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>査定値</t>
+    <rPh sb="0" eb="2">
+      <t>さてい</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ち</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>星　やまと</t>
+    <rPh sb="0" eb="1">
+      <t>ほし</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>山本　奈緒</t>
+    <rPh sb="0" eb="2">
+      <t>やまもと</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>なお</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>中村　雄大</t>
+    <rPh sb="0" eb="2">
+      <t>なかむら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゆうだい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小宮山　愛</t>
+    <rPh sb="0" eb="3">
+      <t>こみやま</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>あい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>鈴木　正雄</t>
+    <rPh sb="0" eb="2">
+      <t>すずき</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>まさお</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>安藤　和子</t>
+    <rPh sb="0" eb="2">
+      <t>あんどう</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>かずこ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>里田　茂樹</t>
+    <rPh sb="0" eb="2">
+      <t>さとだ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>しげき</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大下　早苗</t>
+    <rPh sb="0" eb="2">
+      <t>おおした</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>さなえ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>営業手当</t>
+    <rPh sb="0" eb="4">
+      <t>えいぎょうてあて</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>奨励金</t>
+    <rPh sb="0" eb="3">
+      <t>しょうれいきん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>売上数</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>店頭販売</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通信販売</t>
+  </si>
+  <si>
+    <t>通信販売</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益総額</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>店頭比率</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益目標額</t>
+  </si>
+  <si>
+    <t>店頭販売</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売一覧表（通信販売）</t>
+    <rPh sb="0" eb="5">
+      <t>ハンバイイチランヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>標準契約額テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>標準契約額</t>
+  </si>
+  <si>
+    <t>達成指数</t>
+  </si>
+  <si>
+    <t>商品A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売手数料一覧表（B商品）</t>
+    <rPh sb="0" eb="5">
+      <t>ハンバイテスウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A商品</t>
+  </si>
+  <si>
+    <t>A商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B商品</t>
+  </si>
+  <si>
+    <t>B商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払総額一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウガク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売促進金</t>
+    <rPh sb="2" eb="4">
+      <t>ソクシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払総額</t>
+  </si>
+  <si>
+    <t>構成比率</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>標準平均売価</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前期</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広告費総額</t>
+    <rPh sb="0" eb="2">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広告費分配一覧表（後期）</t>
+    <rPh sb="0" eb="3">
+      <t>コウコクヒ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ブンパイイチランヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商CO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>週料金</t>
+  </si>
+  <si>
+    <t>R商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本加工賃</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員別作業データ表（製品A）</t>
+    <rPh sb="0" eb="3">
+      <t>しゃいんべつ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>さぎょう</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ひょう</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>せいひん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>製品A</t>
+    <rPh sb="0" eb="2">
+      <t>せいひん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>製品B</t>
+  </si>
+  <si>
+    <t>製品B</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>たんか</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>社員別作業データ表（製品B）</t>
+    <rPh sb="0" eb="3">
+      <t>しゃいんべつ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>さぎょう</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ひょう</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>せいひん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>出来高給一覧表</t>
+    <rPh sb="0" eb="4">
+      <t>できだかきゅう</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>いちらん</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ひょう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>製品A</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>支給額総括表</t>
+    <rPh sb="0" eb="2">
+      <t>シキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カツヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>加盟店名</t>
+  </si>
+  <si>
+    <t>前期</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支給額</t>
+    <rPh sb="0" eb="3">
+      <t>シキュウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>輸入品売上一覧表</t>
+    <rPh sb="0" eb="3">
+      <t>ゆにゅうひん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>原価($)</t>
+    <rPh sb="0" eb="2">
+      <t>げんか</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A商品</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>B商品</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>C商品</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D商品</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>E商品</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>為替相場</t>
+    <rPh sb="0" eb="4">
+      <t>かわせそうば</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ＯＰ</t>
+  </si>
+  <si>
+    <t>ＯＰ料金</t>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ごうけい</t>
     </rPh>
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
@@ -1723,644 +2343,99 @@
   </si>
   <si>
     <t>割引額</t>
-    <rPh sb="0" eb="3">
-      <t>わりびきがく</t>
+    <rPh sb="2" eb="3">
+      <t>がく</t>
     </rPh>
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
-    <t>出張</t>
+    <t>請求額</t>
     <rPh sb="0" eb="2">
-      <t>しゅっちょう</t>
+      <t>せいきゅう</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>がく</t>
     </rPh>
     <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>一覧表</t>
-    <rPh sb="0" eb="3">
-      <t>いちらんひょう</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>商談数</t>
-    <rPh sb="0" eb="2">
-      <t>しょうだん</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>すう</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>契約数</t>
-    <rPh sb="0" eb="3">
-      <t>けいやくすう</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>契約率</t>
-    <rPh sb="0" eb="3">
-      <t>けいやくりつ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>査定値</t>
-    <rPh sb="0" eb="2">
-      <t>さてい</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ち</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>星　やまと</t>
-    <rPh sb="0" eb="1">
-      <t>ほし</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>山本　奈緒</t>
-    <rPh sb="0" eb="2">
-      <t>やまもと</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>なお</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>中村　雄大</t>
-    <rPh sb="0" eb="2">
-      <t>なかむら</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゆうだい</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>小宮山　愛</t>
-    <rPh sb="0" eb="3">
-      <t>こみやま</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>あい</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>鈴木　正雄</t>
-    <rPh sb="0" eb="2">
-      <t>すずき</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>まさお</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>安藤　和子</t>
-    <rPh sb="0" eb="2">
-      <t>あんどう</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>かずこ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>里田　茂樹</t>
-    <rPh sb="0" eb="2">
-      <t>さとだ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>しげき</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>大下　早苗</t>
-    <rPh sb="0" eb="2">
-      <t>おおした</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>さなえ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>契約額（千）</t>
-    <rPh sb="0" eb="3">
-      <t>けいやくがく</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>せん</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>出張日数</t>
-    <rPh sb="0" eb="4">
-      <t>しゅっちょうにっすう</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>手当</t>
-    <rPh sb="0" eb="2">
-      <t>てあて</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>営業手当</t>
-    <rPh sb="0" eb="4">
-      <t>えいぎょうてあて</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>特別</t>
-    <rPh sb="0" eb="2">
-      <t>とくべつ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>奨励金</t>
-    <rPh sb="0" eb="3">
-      <t>しょうれいきん</t>
-    </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>売上数</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品W</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品Y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品Z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>店頭販売</t>
-    <rPh sb="0" eb="2">
-      <t>テントウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンバイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>通信販売</t>
-  </si>
-  <si>
-    <t>通信販売</t>
-    <rPh sb="0" eb="2">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンバイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>利益総額</t>
-    <rPh sb="0" eb="2">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>店頭比率</t>
-    <rPh sb="0" eb="2">
-      <t>テントウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>利益目標額テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>モクヒョウガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>利益目標額</t>
-  </si>
-  <si>
-    <t>店頭販売</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>販売一覧表（通信販売）</t>
-    <rPh sb="0" eb="5">
-      <t>ハンバイイチランヒョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンバイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>評価表</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>両方とも２２万以上</t>
-    <rPh sb="0" eb="2">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>いずれか２２万以上</t>
-    <rPh sb="6" eb="7">
-      <t>マン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以外</t>
-    <rPh sb="0" eb="2">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>***</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>合計</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>標準契約額テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>標準契約額</t>
-  </si>
-  <si>
-    <t>達成指数</t>
-  </si>
-  <si>
-    <t>営業手当の計算式</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テアテ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ケイサンシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>契約数</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>510*契約数*達成指数/100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>490*契約数*達成指数/100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品E</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>合計</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>販売手数料一覧表（B商品）</t>
-    <rPh sb="0" eb="5">
-      <t>ハンバイテスウリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>単価テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>単価</t>
-    <rPh sb="0" eb="2">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A商品</t>
-  </si>
-  <si>
-    <t>A商品</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B商品</t>
-  </si>
-  <si>
-    <t>B商品</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支払総額一覧表</t>
-    <rPh sb="0" eb="2">
-      <t>シハライ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウガク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>販売促進金</t>
-    <rPh sb="2" eb="4">
-      <t>ソクシン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支払総額</t>
-  </si>
-  <si>
-    <t>構成比率</t>
-    <rPh sb="0" eb="4">
-      <t>コウセイヒリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>判定</t>
     <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+      <t>はんてい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>請求額一覧表</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>平均</t>
     <rPh sb="0" eb="2">
-      <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>標準平均売価</t>
+      <t>へいきん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ＣＯ</t>
+  </si>
+  <si>
+    <t>ＣＯ</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>標準契約率</t>
     <rPh sb="0" eb="2">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘイキン</t>
-    </rPh>
+      <t>ひょうじゅん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>出張日数</t>
+  </si>
+  <si>
+    <t>出張手当単価</t>
     <rPh sb="4" eb="6">
-      <t>バイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前期</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後期</t>
-    <rPh sb="0" eb="2">
-      <t>コウキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広告費総額</t>
-    <rPh sb="0" eb="2">
-      <t>コウコク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソウガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広告費分配一覧表（後期）</t>
-    <rPh sb="0" eb="3">
-      <t>コウコクヒ</t>
-    </rPh>
-    <rPh sb="3" eb="8">
-      <t>ブンパイイチランヒョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>J商品</t>
+      <t>たんか</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>営業手当単価</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>出張データ一覧表</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>支給総額</t>
+  </si>
+  <si>
+    <t>支給総額一覧表</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>社員名</t>
+  </si>
+  <si>
+    <t>契約額（千）</t>
+  </si>
+  <si>
+    <t>出張手当</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>特別手当</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>&lt;利益目標額テーブル&gt;</t>
     <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K商品</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>L商品</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>M商品</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>N商品</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商CO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>週料金</t>
-  </si>
-  <si>
-    <t>R商品</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S商品</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T商品</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U商品</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>合計</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>製品F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>製品G</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>製品H</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本加工賃</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>モクヒョウガク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2600,7 +2675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2724,16 +2799,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2753,6 +2855,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4047,15 +4158,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -4268,18 +4379,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
@@ -4727,7 +4838,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4743,13 +4854,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="38" t="s">
@@ -4792,7 +4903,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="C4" s="21">
         <v>25340</v>
@@ -4811,7 +4922,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="C5" s="21">
         <v>27730</v>
@@ -4830,12 +4941,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C6" s="28">
         <v>23160</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="48">
         <f t="shared" si="0"/>
         <v>0.184</v>
       </c>
@@ -4845,20 +4956,20 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="38" t="s">
@@ -4886,7 +4997,7 @@
         <v>158</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>159</v>
@@ -5321,244 +5432,821 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="13" max="13" width="31.125" customWidth="1"/>
+    <col min="14" max="14" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="B1" t="str">
-        <f>PHONETIC(A1)</f>
-        <v>しゃいんべつ</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="C2" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B26" si="0">PHONETIC(A2)</f>
-        <v>さぎょう</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="D2" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="B3" t="str">
+      <c r="E2" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="21">
+        <v>12521</v>
+      </c>
+      <c r="D3" s="21">
+        <v>12203</v>
+      </c>
+      <c r="E3" s="2">
+        <f>ROUNDDOWN(D3/C3*100,1)</f>
+        <v>97.4</v>
+      </c>
+      <c r="F3" s="35">
+        <f>IF(OR(D3&gt;=10000, E3&gt;=98),105%, 102%)</f>
+        <v>1.05</v>
+      </c>
+      <c r="G3" s="27">
+        <f>ROUNDUP($J$4*D3*F3,0)</f>
+        <v>137101</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="21">
+        <v>6705</v>
+      </c>
+      <c r="D4" s="21">
+        <v>6562</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E9" si="0">ROUNDDOWN(D4/C4*100,1)</f>
+        <v>97.8</v>
+      </c>
+      <c r="F4" s="35">
+        <f t="shared" ref="F4:F9" si="1">IF(OR(D4&gt;=10000, E4&gt;=98),105%, 102%)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" ref="G4:G9" si="2">ROUNDUP($J$4*D4*F4,0)</f>
+        <v>71618</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="10">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="21">
+        <v>8695</v>
+      </c>
+      <c r="D5" s="21">
+        <v>8346</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>ひょう</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+        <v>95.9</v>
+      </c>
+      <c r="F5" s="35">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="2"/>
+        <v>91089</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="J5" s="14">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="21">
+        <v>9540</v>
+      </c>
+      <c r="D6" s="21">
+        <v>9367</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>98.1</v>
+      </c>
+      <c r="F6" s="35">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="2"/>
+        <v>105239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="21">
+        <v>4824</v>
+      </c>
+      <c r="D7" s="21">
+        <v>4728</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F7" s="35">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="2"/>
+        <v>53120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="21">
+        <v>7356</v>
+      </c>
+      <c r="D8" s="21">
+        <v>7125</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>96.8</v>
+      </c>
+      <c r="F8" s="35">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="2"/>
+        <v>77763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="21">
+        <v>8942</v>
+      </c>
+      <c r="D9" s="21">
+        <v>8574</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>95.8</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="2"/>
+        <v>93577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="32">
+        <f>SUM(C3:C9)</f>
+        <v>58583</v>
+      </c>
+      <c r="D11" s="32">
+        <f t="shared" ref="D11:G11" si="3">SUM(D3:D9)</f>
+        <v>56905</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="45">
+        <f t="shared" si="3"/>
+        <v>629507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>しゃいんめい</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="F14" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>さぎょうすう</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="G14" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>かんせいすう</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="21">
+        <v>4926</v>
+      </c>
+      <c r="D15" s="21">
+        <v>4831</v>
+      </c>
+      <c r="E15" s="2">
+        <f>ROUNDDOWN(D15/C15*100,1)</f>
+        <v>98</v>
+      </c>
+      <c r="F15" s="35">
+        <f>IF(OR(D15&gt;=10000, E15&gt;=98),105%, 102%)</f>
+        <v>1.05</v>
+      </c>
+      <c r="G15" s="27">
+        <f>ROUNDUP($J$5*D15*F15,0)</f>
+        <v>57828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="21">
+        <v>7968</v>
+      </c>
+      <c r="D16" s="21">
+        <v>7713</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E21" si="4">ROUNDDOWN(D16/C16*100,1)</f>
+        <v>96.7</v>
+      </c>
+      <c r="F16" s="35">
+        <f t="shared" ref="F16:F21" si="5">IF(OR(D16&gt;=10000, E16&gt;=98),105%, 102%)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" ref="G16:G21" si="6">ROUNDUP($J$5*D16*F16,0)</f>
+        <v>89687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="21">
+        <v>10520</v>
+      </c>
+      <c r="D17" s="21">
+        <v>10284</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="4"/>
+        <v>97.7</v>
+      </c>
+      <c r="F17" s="35">
+        <f t="shared" si="5"/>
+        <v>1.05</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="6"/>
+        <v>123100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>104</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="21">
+        <v>3952</v>
+      </c>
+      <c r="D18" s="21">
+        <v>3902</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="4"/>
+        <v>98.7</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" si="5"/>
+        <v>1.05</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="6"/>
+        <v>46707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>105</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="21">
+        <v>11769</v>
+      </c>
+      <c r="D19" s="21">
+        <v>11318</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="4"/>
+        <v>96.1</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="5"/>
+        <v>1.05</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="6"/>
+        <v>135477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>106</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="21">
+        <v>8437</v>
+      </c>
+      <c r="D20" s="21">
+        <v>8085</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="4"/>
+        <v>95.8</v>
+      </c>
+      <c r="F20" s="35">
+        <f t="shared" si="5"/>
+        <v>1.02</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="6"/>
+        <v>94013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="21">
+        <v>9871</v>
+      </c>
+      <c r="D21" s="21">
+        <v>9587</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="4"/>
+        <v>97.1</v>
+      </c>
+      <c r="F21" s="35">
+        <f t="shared" si="5"/>
+        <v>1.02</v>
+      </c>
+      <c r="G21" s="27">
+        <f t="shared" si="6"/>
+        <v>111478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>かんせいしすう</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="C23" s="32">
+        <f>SUM(C15:C21)</f>
+        <v>57443</v>
+      </c>
+      <c r="D23" s="32">
+        <f t="shared" ref="D23" si="7">SUM(D15:D21)</f>
+        <v>55720</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="45">
+        <f t="shared" ref="G23" si="8">SUM(G15:G21)</f>
+        <v>658290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="21">
+        <f>VLOOKUP(A27, $A$3:$G$9,7, 0)</f>
+        <v>105239</v>
+      </c>
+      <c r="D27" s="21">
+        <f>VLOOKUP(A27,$A$15:$G$21,7,0)</f>
+        <v>46707</v>
+      </c>
+      <c r="E27" s="21">
+        <f>INT((C27+D27)*5.7%)</f>
+        <v>8660</v>
+      </c>
+      <c r="F27" s="31">
+        <f>C27+D27+E27</f>
+        <v>160606</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f>IF(AND(C27&gt;=$C$36,D27&gt;=$D$36),"###",IF(OR(C27&gt;=$C$36,D27&gt;=$D$36),"##","#"))</f>
+        <v>##</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="21">
+        <f>VLOOKUP(A28, $A$3:$G$9,7, 0)</f>
+        <v>71618</v>
+      </c>
+      <c r="D28" s="21">
+        <f>VLOOKUP(A28,$A$15:$G$21,7,0)</f>
+        <v>89687</v>
+      </c>
+      <c r="E28" s="21">
+        <f>INT((C28+D28)*5.7%)</f>
+        <v>9194</v>
+      </c>
+      <c r="F28" s="31">
+        <f>C28+D28+E28</f>
+        <v>170499</v>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f>IF(AND(C28&gt;=$C$36,D28&gt;=$D$36),"###",IF(OR(C28&gt;=$C$36,D28&gt;=$D$36),"##","#"))</f>
+        <v>#</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="21">
+        <f>VLOOKUP(A29, $A$3:$G$9,7, 0)</f>
+        <v>77763</v>
+      </c>
+      <c r="D29" s="21">
+        <f>VLOOKUP(A29,$A$15:$G$21,7,0)</f>
+        <v>94013</v>
+      </c>
+      <c r="E29" s="21">
+        <f>INT((C29+D29)*5.7%)</f>
+        <v>9791</v>
+      </c>
+      <c r="F29" s="31">
+        <f>C29+D29+E29</f>
+        <v>181567</v>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f>IF(AND(C29&gt;=$C$36,D29&gt;=$D$36),"###",IF(OR(C29&gt;=$C$36,D29&gt;=$D$36),"##","#"))</f>
+        <v>#</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <v>105</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="21">
+        <f>VLOOKUP(A30, $A$3:$G$9,7, 0)</f>
+        <v>53120</v>
+      </c>
+      <c r="D30" s="21">
+        <f>VLOOKUP(A30,$A$15:$G$21,7,0)</f>
+        <v>135477</v>
+      </c>
+      <c r="E30" s="21">
+        <f>INT((C30+D30)*5.7%)</f>
+        <v>10750</v>
+      </c>
+      <c r="F30" s="31">
+        <f>C30+D30+E30</f>
+        <v>199347</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f>IF(AND(C30&gt;=$C$36,D30&gt;=$D$36),"###",IF(OR(C30&gt;=$C$36,D30&gt;=$D$36),"##","#"))</f>
+        <v>##</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <v>101</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>じょうりつ</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>しきゅうがく</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="C31" s="21">
+        <f>VLOOKUP(A31, $A$3:$G$9,7, 0)</f>
+        <v>137101</v>
+      </c>
+      <c r="D31" s="21">
+        <f>VLOOKUP(A31,$A$15:$G$21,7,0)</f>
+        <v>57828</v>
+      </c>
+      <c r="E31" s="21">
+        <f>INT((C31+D31)*5.7%)</f>
+        <v>11110</v>
+      </c>
+      <c r="F31" s="31">
+        <f>C31+D31+E31</f>
+        <v>206039</v>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f>IF(AND(C31&gt;=$C$36,D31&gt;=$D$36),"###",IF(OR(C31&gt;=$C$36,D31&gt;=$D$36),"##","#"))</f>
+        <v>##</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <v>107</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="21">
+        <f>VLOOKUP(A32, $A$3:$G$9,7, 0)</f>
+        <v>93577</v>
+      </c>
+      <c r="D32" s="21">
+        <f>VLOOKUP(A32,$A$15:$G$21,7,0)</f>
+        <v>111478</v>
+      </c>
+      <c r="E32" s="21">
+        <f>INT((C32+D32)*5.7%)</f>
+        <v>11688</v>
+      </c>
+      <c r="F32" s="31">
+        <f>C32+D32+E32</f>
+        <v>216743</v>
+      </c>
+      <c r="G32" s="10" t="str">
+        <f>IF(AND(C32&gt;=$C$36,D32&gt;=$D$36),"###",IF(OR(C32&gt;=$C$36,D32&gt;=$D$36),"##","#"))</f>
+        <v>###</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <v>103</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>ごうけい</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="str">
-        <f>PHONETIC(A11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>おぐら　せいじ</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>やました　あいこ</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>くぼた　いさむ</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>もり　ひかり</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="C33" s="21">
+        <f>VLOOKUP(A33, $A$3:$G$9,7, 0)</f>
+        <v>91089</v>
+      </c>
+      <c r="D33" s="21">
+        <f>VLOOKUP(A33,$A$15:$G$21,7,0)</f>
+        <v>123100</v>
+      </c>
+      <c r="E33" s="21">
+        <f>INT((C33+D33)*5.7%)</f>
+        <v>12208</v>
+      </c>
+      <c r="F33" s="31">
+        <f>C33+D33+E33</f>
+        <v>226397</v>
+      </c>
+      <c r="G33" s="10" t="str">
+        <f>IF(AND(C33&gt;=$C$36,D33&gt;=$D$36),"###",IF(OR(C33&gt;=$C$36,D33&gt;=$D$36),"##","#"))</f>
+        <v>###</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="31">
+        <f>SUM(C27:C33)</f>
+        <v>629507</v>
+      </c>
+      <c r="D35" s="31">
+        <f t="shared" ref="D35:F35" si="9">SUM(D27:D33)</f>
+        <v>658290</v>
+      </c>
+      <c r="E35" s="31">
+        <f t="shared" si="9"/>
+        <v>73401</v>
+      </c>
+      <c r="F35" s="31">
+        <f t="shared" si="9"/>
+        <v>1361198</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>おおかわ　こうへい</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>まつおか　ゆか</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>さとう　かずお</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>へいきん</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>できだかきゅう</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>きんべんてあて</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>しきゅうそうがく</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>はんてい</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>ひかく</v>
-      </c>
+      <c r="C36" s="32">
+        <f>AVERAGE(C27:C33)</f>
+        <v>89929.571428571435</v>
+      </c>
+      <c r="D36" s="32">
+        <f t="shared" ref="D36:F36" si="10">AVERAGE(D27:D33)</f>
+        <v>94041.428571428565</v>
+      </c>
+      <c r="E36" s="32">
+        <f t="shared" si="10"/>
+        <v>10485.857142857143</v>
+      </c>
+      <c r="F36" s="32">
+        <f t="shared" si="10"/>
+        <v>194456.85714285713</v>
+      </c>
+      <c r="G36" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="A27:G33">
+    <sortCondition ref="F26"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A25:G25"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5566,271 +6254,858 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D4197C-B496-43B0-9144-B70071B0A6DD}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="B1" t="str">
-        <f>PHONETIC(A1)</f>
-        <v>ゆにゅうひん</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="H2" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B29" si="0">PHONETIC(A2)</f>
-        <v>うりあげいちらんひょう</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="I2" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="B3" t="str">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>VLOOKUP(C3,$K$4:$M$8,2,0)</f>
+        <v>A商品</v>
+      </c>
+      <c r="E3" s="2">
+        <f>VLOOKUP(C3,$K$4:$M$8,3,0)</f>
+        <v>29.54</v>
+      </c>
+      <c r="F3" s="21">
+        <f>INT(E3*1.27*$L$11)</f>
+        <v>5466</v>
+      </c>
+      <c r="G3" s="21">
+        <v>372</v>
+      </c>
+      <c r="H3" s="21">
+        <f>ROUNDUP(IF(G3&lt;450,F3*0.89,F3*0.87),0)</f>
+        <v>4865</v>
+      </c>
+      <c r="I3" s="27">
+        <f>H3*G3</f>
+        <v>1809780</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" ref="D4:D11" si="0">VLOOKUP(C4,$K$4:$M$8,2,0)</f>
+        <v>D商品</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E11" si="1">VLOOKUP(C4,$K$4:$M$8,3,0)</f>
+        <v>32.96</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F11" si="2">INT(E4*1.27*$L$11)</f>
+        <v>6099</v>
+      </c>
+      <c r="G4" s="21">
+        <v>459</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4:H11" si="3">ROUNDUP(IF(G4&lt;450,F4*0.89,F4*0.87),0)</f>
+        <v>5307</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" ref="I4:I11" si="4">H4*G4</f>
+        <v>2435913</v>
+      </c>
+      <c r="K4" s="8">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M4" s="10">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>とりCO</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+        <v>B商品</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>37.61</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="2"/>
+        <v>6960</v>
+      </c>
+      <c r="G5" s="21">
+        <v>427</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="3"/>
+        <v>6195</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="4"/>
+        <v>2645265</v>
+      </c>
+      <c r="K5" s="8">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M5" s="10">
+        <v>37.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C商品</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>26.18</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="2"/>
+        <v>4844</v>
+      </c>
+      <c r="G6" s="21">
+        <v>384</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="3"/>
+        <v>4312</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="4"/>
+        <v>1655808</v>
+      </c>
+      <c r="K6" s="8">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M6" s="10">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>E商品</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>36.47</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="2"/>
+        <v>6749</v>
+      </c>
+      <c r="G7" s="21">
+        <v>512</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="3"/>
+        <v>5872</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="4"/>
+        <v>3006464</v>
+      </c>
+      <c r="K7" s="8">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M7" s="10">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>A商品</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>29.54</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="2"/>
+        <v>5466</v>
+      </c>
+      <c r="G8" s="21">
+        <v>481</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="3"/>
+        <v>4756</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="4"/>
+        <v>2287636</v>
+      </c>
+      <c r="K8" s="11">
+        <v>15</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="M8" s="14">
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C商品</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>26.18</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="2"/>
+        <v>4844</v>
+      </c>
+      <c r="G9" s="21">
+        <v>450</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="3"/>
+        <v>4215</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="4"/>
+        <v>1896750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>B商品</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>37.61</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="2"/>
+        <v>6960</v>
+      </c>
+      <c r="G10" s="21">
+        <v>468</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="3"/>
+        <v>6056</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="4"/>
+        <v>2834208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
+        <v>109</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>D商品</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>32.96</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="2"/>
+        <v>6099</v>
+      </c>
+      <c r="G11" s="21">
+        <v>396</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="3"/>
+        <v>5429</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="4"/>
+        <v>2149884</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="L11" s="53">
+        <v>145.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="28">
+        <f>SUM(G3:G11)</f>
+        <v>3949</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29">
+        <f t="shared" ref="H13:I13" si="5">SUM(I3:I11)</f>
+        <v>20721708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>105</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="21">
+        <f>VLOOKUP(A17,$A$3:$I$11,7,0)</f>
+        <v>512</v>
+      </c>
+      <c r="D17" s="21">
+        <f>VLOOKUP(A17,$A$3:$I$11,9,0)</f>
+        <v>3006464</v>
+      </c>
+      <c r="E17" s="4">
+        <f>IF(D17&gt;=2500000,6.5%,IF(D17&gt;=1900000,5.7%,4.8%))</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F17" s="21">
+        <f>ROUNDUP(D17*E17,0)</f>
+        <v>195421</v>
+      </c>
+      <c r="G17" s="31">
+        <f>D17-F17</f>
+        <v>2811043</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f>IF(AND(C17&gt;=450,G17&gt;=$G$28),"A","")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>106</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="21">
+        <f>VLOOKUP(A18,$A$3:$I$11,7,0)</f>
+        <v>481</v>
+      </c>
+      <c r="D18" s="21">
+        <f>VLOOKUP(A18,$A$3:$I$11,9,0)</f>
+        <v>2287636</v>
+      </c>
+      <c r="E18" s="4">
+        <f>IF(D18&gt;=2500000,6.5%,IF(D18&gt;=1900000,5.7%,4.8%))</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <f>ROUNDUP(D18*E18,0)</f>
+        <v>130396</v>
+      </c>
+      <c r="G18" s="31">
+        <f>D18-F18</f>
+        <v>2157240</v>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f>IF(AND(C18&gt;=450,G18&gt;=$G$28),"A","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>108</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="21">
+        <f>VLOOKUP(A19,$A$3:$I$11,7,0)</f>
+        <v>468</v>
+      </c>
+      <c r="D19" s="21">
+        <f>VLOOKUP(A19,$A$3:$I$11,9,0)</f>
+        <v>2834208</v>
+      </c>
+      <c r="E19" s="4">
+        <f>IF(D19&gt;=2500000,6.5%,IF(D19&gt;=1900000,5.7%,4.8%))</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F19" s="21">
+        <f>ROUNDUP(D19*E19,0)</f>
+        <v>184224</v>
+      </c>
+      <c r="G19" s="31">
+        <f>D19-F19</f>
+        <v>2649984</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f>IF(AND(C19&gt;=450,G19&gt;=$G$28),"A","")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>102</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="21">
+        <f>VLOOKUP(A20,$A$3:$I$11,7,0)</f>
+        <v>459</v>
+      </c>
+      <c r="D20" s="21">
+        <f>VLOOKUP(A20,$A$3:$I$11,9,0)</f>
+        <v>2435913</v>
+      </c>
+      <c r="E20" s="4">
+        <f>IF(D20&gt;=2500000,6.5%,IF(D20&gt;=1900000,5.7%,4.8%))</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <f>ROUNDUP(D20*E20,0)</f>
+        <v>138848</v>
+      </c>
+      <c r="G20" s="31">
+        <f>D20-F20</f>
+        <v>2297065</v>
+      </c>
+      <c r="H20" s="10" t="str">
+        <f>IF(AND(C20&gt;=450,G20&gt;=$G$28),"A","")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="21">
+        <f>VLOOKUP(A21,$A$3:$I$11,7,0)</f>
+        <v>450</v>
+      </c>
+      <c r="D21" s="21">
+        <f>VLOOKUP(A21,$A$3:$I$11,9,0)</f>
+        <v>1896750</v>
+      </c>
+      <c r="E21" s="4">
+        <f>IF(D21&gt;=2500000,6.5%,IF(D21&gt;=1900000,5.7%,4.8%))</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F21" s="21">
+        <f>ROUNDUP(D21*E21,0)</f>
+        <v>91044</v>
+      </c>
+      <c r="G21" s="31">
+        <f>D21-F21</f>
+        <v>1805706</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f>IF(AND(C21&gt;=450,G21&gt;=$G$28),"A","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <v>103</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="21">
+        <f>VLOOKUP(A22,$A$3:$I$11,7,0)</f>
+        <v>427</v>
+      </c>
+      <c r="D22" s="21">
+        <f>VLOOKUP(A22,$A$3:$I$11,9,0)</f>
+        <v>2645265</v>
+      </c>
+      <c r="E22" s="4">
+        <f>IF(D22&gt;=2500000,6.5%,IF(D22&gt;=1900000,5.7%,4.8%))</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F22" s="21">
+        <f>ROUNDUP(D22*E22,0)</f>
+        <v>171943</v>
+      </c>
+      <c r="G22" s="31">
+        <f>D22-F22</f>
+        <v>2473322</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f>IF(AND(C22&gt;=450,G22&gt;=$G$28),"A","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="21">
+        <f>VLOOKUP(A23,$A$3:$I$11,7,0)</f>
+        <v>396</v>
+      </c>
+      <c r="D23" s="21">
+        <f>VLOOKUP(A23,$A$3:$I$11,9,0)</f>
+        <v>2149884</v>
+      </c>
+      <c r="E23" s="4">
+        <f>IF(D23&gt;=2500000,6.5%,IF(D23&gt;=1900000,5.7%,4.8%))</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F23" s="21">
+        <f>ROUNDUP(D23*E23,0)</f>
+        <v>122544</v>
+      </c>
+      <c r="G23" s="31">
+        <f>D23-F23</f>
+        <v>2027340</v>
+      </c>
+      <c r="H23" s="10" t="str">
+        <f>IF(AND(C23&gt;=450,G23&gt;=$G$28),"A","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="21">
+        <f>VLOOKUP(A24,$A$3:$I$11,7,0)</f>
+        <v>384</v>
+      </c>
+      <c r="D24" s="21">
+        <f>VLOOKUP(A24,$A$3:$I$11,9,0)</f>
+        <v>1655808</v>
+      </c>
+      <c r="E24" s="4">
+        <f>IF(D24&gt;=2500000,6.5%,IF(D24&gt;=1900000,5.7%,4.8%))</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F24" s="21">
+        <f>ROUNDUP(D24*E24,0)</f>
+        <v>79479</v>
+      </c>
+      <c r="G24" s="31">
+        <f>D24-F24</f>
+        <v>1576329</v>
+      </c>
+      <c r="H24" s="10" t="str">
+        <f>IF(AND(C24&gt;=450,G24&gt;=$G$28),"A","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <v>101</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>とりひきさきめい</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>しょうCO</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>しょうひんめい</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>げんか</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>ていか</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>うりあげすう</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>ばいか</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>うりあげがく</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>ごうけい</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
+      <c r="C25" s="21">
+        <f>VLOOKUP(A25,$A$3:$I$11,7,0)</f>
+        <v>372</v>
+      </c>
+      <c r="D25" s="21">
+        <f>VLOOKUP(A25,$A$3:$I$11,9,0)</f>
+        <v>1809780</v>
+      </c>
+      <c r="E25" s="4">
+        <f>IF(D25&gt;=2500000,6.5%,IF(D25&gt;=1900000,5.7%,4.8%))</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F25" s="21">
+        <f>ROUNDUP(D25*E25,0)</f>
+        <v>86870</v>
+      </c>
+      <c r="G25" s="31">
+        <f>D25-F25</f>
+        <v>1722910</v>
+      </c>
+      <c r="H25" s="10" t="str">
+        <f>IF(AND(C25&gt;=450,G25&gt;=$G$28),"A","")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>ののむらしょうてん</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>ＺＥＴぶっさん</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>あけのきかく</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>やまよすいさん</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>すーぱーひかり</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>まいにちすとあ</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>やまてまーと</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>さくらいせいかてん</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>みなみさんりくしょうじ</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>せいきゅうがく</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>わりびきりつ</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>わりびきがく</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>はんてい</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>ひかく</v>
-      </c>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="31">
+        <f>SUM(C17:C25)</f>
+        <v>3949</v>
+      </c>
+      <c r="D27" s="31">
+        <f t="shared" ref="D27:G27" si="6">SUM(D17:D25)</f>
+        <v>20721708</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31">
+        <f t="shared" si="6"/>
+        <v>1200769</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" si="6"/>
+        <v>19520939</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="32">
+        <f>AVERAGE(C17:C25)</f>
+        <v>438.77777777777777</v>
+      </c>
+      <c r="D28" s="32">
+        <f t="shared" ref="D28:G28" si="7">AVERAGE(D17:D25)</f>
+        <v>2302412</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32">
+        <f t="shared" si="7"/>
+        <v>133418.77777777778</v>
+      </c>
+      <c r="G28" s="32">
+        <f t="shared" si="7"/>
+        <v>2168993.222222222</v>
+      </c>
+      <c r="H28" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="A17:H25">
+    <sortCondition descending="1" ref="C16"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:H15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5838,262 +7113,717 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620AB24F-B8C6-490A-B628-E497009D2F34}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4">
+        <f>ROUNDDOWN(D3/C3,3)</f>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F3" s="10">
+        <f>ROUNDUP(E3/$I$3*100,0)</f>
+        <v>106</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="I3" s="61">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="2">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E10" si="0">ROUNDDOWN(D4/C4,3)</f>
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F10" si="1">ROUNDUP(E4/$I$3*100,0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="2">
+        <v>147</v>
+      </c>
+      <c r="D5" s="2">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="2">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6" s="62">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="2">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.371</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" s="29">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="2">
+        <v>107</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="2">
+        <v>123</v>
+      </c>
+      <c r="D9" s="2">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B1" t="str">
-        <f>PHONETIC(A1)</f>
-        <v>しゅっちょう</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="C10" s="2">
+        <v>186</v>
+      </c>
+      <c r="D10" s="2">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="16">
+        <f>ROUND(AVERAGE(C3:C10),0)</f>
+        <v>112</v>
+      </c>
+      <c r="D12" s="16">
+        <f>ROUND(AVERAGE(D3:D10),0)</f>
+        <v>41</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B28" si="0">PHONETIC(A2)</f>
-        <v>いちらんひょう</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>しゃいんめい</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="H15" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J15" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>しょうだんすう</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>けいやくすう</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>けいやくりつ</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>さていち</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>へいきん</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>ほし　やまと</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>やまもと　なお</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>なかむら　ゆうだい</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>こみやま　あい</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>すずき　まさお</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>あんどう　かずこ</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>さとだ　しげき</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>おおした　さなえ</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>しきゅうそうがく</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>けいやくがく（せん）</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>しゅっちょうにっすう</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>てあて</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>231</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>えいぎょうてあて</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>とくべつ</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>しょうれいきん</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>ごうけい</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>ひかく</v>
+      <c r="K15" s="51" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="21">
+        <v>16829</v>
+      </c>
+      <c r="D16" s="21">
+        <v>14</v>
+      </c>
+      <c r="E16" s="21">
+        <f>$I$6*D16</f>
+        <v>36400</v>
+      </c>
+      <c r="F16" s="2">
+        <f>VLOOKUP(A16,$A$3:$F$10,4,0)</f>
+        <v>57</v>
+      </c>
+      <c r="G16" s="21">
+        <f>$I$7*F16</f>
+        <v>27930</v>
+      </c>
+      <c r="H16" s="2">
+        <f>VLOOKUP(A16,$A$3:$F$10,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="I16" s="21">
+        <f>130*H16</f>
+        <v>10920</v>
+      </c>
+      <c r="J16" s="21">
+        <f>IF(OR(C16&gt;10000,H16&gt;=110),H16*35,H16*25)</f>
+        <v>2940</v>
+      </c>
+      <c r="K16" s="44">
+        <f>E16+G16+I16+J16</f>
+        <v>78190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="21">
+        <v>14726</v>
+      </c>
+      <c r="D17" s="21">
+        <v>13</v>
+      </c>
+      <c r="E17" s="21">
+        <f>$I$6*D17</f>
+        <v>33800</v>
+      </c>
+      <c r="F17" s="2">
+        <f>VLOOKUP(A17,$A$3:$F$10,4,0)</f>
+        <v>52</v>
+      </c>
+      <c r="G17" s="21">
+        <f>$I$7*F17</f>
+        <v>25480</v>
+      </c>
+      <c r="H17" s="2">
+        <f>VLOOKUP(A17,$A$3:$F$10,6,0)</f>
+        <v>97</v>
+      </c>
+      <c r="I17" s="21">
+        <f>130*H17</f>
+        <v>12610</v>
+      </c>
+      <c r="J17" s="21">
+        <f>IF(OR(C17&gt;10000,H17&gt;=110),H17*35,H17*25)</f>
+        <v>3395</v>
+      </c>
+      <c r="K17" s="44">
+        <f>E17+G17+I17+J17</f>
+        <v>75285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>107</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="21">
+        <v>12507</v>
+      </c>
+      <c r="D18" s="21">
+        <v>12</v>
+      </c>
+      <c r="E18" s="21">
+        <f>$I$6*D18</f>
+        <v>31200</v>
+      </c>
+      <c r="F18" s="2">
+        <f>VLOOKUP(A18,$A$3:$F$10,4,0)</f>
+        <v>47</v>
+      </c>
+      <c r="G18" s="21">
+        <f>$I$7*F18</f>
+        <v>23030</v>
+      </c>
+      <c r="H18" s="2">
+        <f>VLOOKUP(A18,$A$3:$F$10,6,0)</f>
+        <v>105</v>
+      </c>
+      <c r="I18" s="21">
+        <f>130*H18</f>
+        <v>13650</v>
+      </c>
+      <c r="J18" s="21">
+        <f>IF(OR(C18&gt;10000,H18&gt;=110),H18*35,H18*25)</f>
+        <v>3675</v>
+      </c>
+      <c r="K18" s="44">
+        <f>E18+G18+I18+J18</f>
+        <v>71555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="21">
+        <v>10631</v>
+      </c>
+      <c r="D19" s="21">
+        <v>11</v>
+      </c>
+      <c r="E19" s="21">
+        <f>$I$6*D19</f>
+        <v>28600</v>
+      </c>
+      <c r="F19" s="2">
+        <f>VLOOKUP(A19,$A$3:$F$10,4,0)</f>
+        <v>43</v>
+      </c>
+      <c r="G19" s="21">
+        <f>$I$7*F19</f>
+        <v>21070</v>
+      </c>
+      <c r="H19" s="2">
+        <f>VLOOKUP(A19,$A$3:$F$10,6,0)</f>
+        <v>110</v>
+      </c>
+      <c r="I19" s="21">
+        <f>130*H19</f>
+        <v>14300</v>
+      </c>
+      <c r="J19" s="21">
+        <f>IF(OR(C19&gt;10000,H19&gt;=110),H19*35,H19*25)</f>
+        <v>3850</v>
+      </c>
+      <c r="K19" s="44">
+        <f>E19+G19+I19+J19</f>
+        <v>67820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="21">
+        <v>9875</v>
+      </c>
+      <c r="D20" s="21">
+        <v>9</v>
+      </c>
+      <c r="E20" s="21">
+        <f>$I$6*D20</f>
+        <v>23400</v>
+      </c>
+      <c r="F20" s="2">
+        <f>VLOOKUP(A20,$A$3:$F$10,4,0)</f>
+        <v>38</v>
+      </c>
+      <c r="G20" s="21">
+        <f>$I$7*F20</f>
+        <v>18620</v>
+      </c>
+      <c r="H20" s="2">
+        <f>VLOOKUP(A20,$A$3:$F$10,6,0)</f>
+        <v>106</v>
+      </c>
+      <c r="I20" s="21">
+        <f>130*H20</f>
+        <v>13780</v>
+      </c>
+      <c r="J20" s="21">
+        <f>IF(OR(C20&gt;10000,H20&gt;=110),H20*35,H20*25)</f>
+        <v>2650</v>
+      </c>
+      <c r="K20" s="44">
+        <f>E20+G20+I20+J20</f>
+        <v>58450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>102</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="21">
+        <v>8534</v>
+      </c>
+      <c r="D21" s="21">
+        <v>8</v>
+      </c>
+      <c r="E21" s="21">
+        <f>$I$6*D21</f>
+        <v>20800</v>
+      </c>
+      <c r="F21" s="2">
+        <f>VLOOKUP(A21,$A$3:$F$10,4,0)</f>
+        <v>35</v>
+      </c>
+      <c r="G21" s="21">
+        <f>$I$7*F21</f>
+        <v>17150</v>
+      </c>
+      <c r="H21" s="2">
+        <f>VLOOKUP(A21,$A$3:$F$10,6,0)</f>
+        <v>111</v>
+      </c>
+      <c r="I21" s="21">
+        <f>130*H21</f>
+        <v>14430</v>
+      </c>
+      <c r="J21" s="21">
+        <f>IF(OR(C21&gt;10000,H21&gt;=110),H21*35,H21*25)</f>
+        <v>3885</v>
+      </c>
+      <c r="K21" s="44">
+        <f>E21+G21+I21+J21</f>
+        <v>56265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="21">
+        <v>7920</v>
+      </c>
+      <c r="D22" s="21">
+        <v>7</v>
+      </c>
+      <c r="E22" s="21">
+        <f>$I$6*D22</f>
+        <v>18200</v>
+      </c>
+      <c r="F22" s="2">
+        <f>VLOOKUP(A22,$A$3:$F$10,4,0)</f>
+        <v>29</v>
+      </c>
+      <c r="G22" s="21">
+        <f>$I$7*F22</f>
+        <v>14210</v>
+      </c>
+      <c r="H22" s="2">
+        <f>VLOOKUP(A22,$A$3:$F$10,6,0)</f>
+        <v>102</v>
+      </c>
+      <c r="I22" s="21">
+        <f>130*H22</f>
+        <v>13260</v>
+      </c>
+      <c r="J22" s="21">
+        <f>IF(OR(C22&gt;10000,H22&gt;=110),H22*35,H22*25)</f>
+        <v>2550</v>
+      </c>
+      <c r="K22" s="44">
+        <f>E22+G22+I22+J22</f>
+        <v>48220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="21">
+        <v>7053</v>
+      </c>
+      <c r="D23" s="21">
+        <v>6</v>
+      </c>
+      <c r="E23" s="21">
+        <f>$I$6*D23</f>
+        <v>15600</v>
+      </c>
+      <c r="F23" s="2">
+        <f>VLOOKUP(A23,$A$3:$F$10,4,0)</f>
+        <v>25</v>
+      </c>
+      <c r="G23" s="21">
+        <f>$I$7*F23</f>
+        <v>12250</v>
+      </c>
+      <c r="H23" s="2">
+        <f>VLOOKUP(A23,$A$3:$F$10,6,0)</f>
+        <v>95</v>
+      </c>
+      <c r="I23" s="21">
+        <f>130*H23</f>
+        <v>12350</v>
+      </c>
+      <c r="J23" s="21">
+        <f>IF(OR(C23&gt;10000,H23&gt;=110),H23*35,H23*25)</f>
+        <v>2375</v>
+      </c>
+      <c r="K23" s="44">
+        <f>E23+G23+I23+J23</f>
+        <v>42575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="32">
+        <f>SUM(C16:C23)</f>
+        <v>88075</v>
+      </c>
+      <c r="D25" s="32">
+        <f t="shared" ref="D25:K25" si="2">SUM(D16:D23)</f>
+        <v>80</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="2"/>
+        <v>208000</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="G25" s="32">
+        <f t="shared" si="2"/>
+        <v>159740</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32">
+        <f t="shared" si="2"/>
+        <v>105300</v>
+      </c>
+      <c r="J25" s="32">
+        <f t="shared" si="2"/>
+        <v>25320</v>
+      </c>
+      <c r="K25" s="45">
+        <f t="shared" si="2"/>
+        <v>498360</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A16:K23">
+    <sortCondition descending="1" ref="G15"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:K14"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6104,7 +7834,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6120,15 +7850,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
@@ -6153,7 +7883,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>21</v>
@@ -6252,7 +7982,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>14</v>
       </c>
@@ -6301,12 +8031,8 @@
         <f t="shared" si="1"/>
         <v>1753</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
@@ -6316,12 +8042,8 @@
       <c r="E8" s="2"/>
       <c r="F8" s="21"/>
       <c r="G8" s="27"/>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="11"/>
@@ -6339,34 +8061,26 @@
         <v>4298646</v>
       </c>
       <c r="G9" s="29"/>
-      <c r="I9" s="8">
-        <v>550000</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I10" s="11">
-        <v>620000</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -6402,24 +8116,24 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>VLOOKUP(C14,$A$3:$G$7,2,FALSE)</f>
-        <v>商品Z</v>
+        <v>商品W</v>
       </c>
       <c r="E14" s="21">
         <f>VLOOKUP(C14,$A$3:$G$7,7,FALSE)</f>
-        <v>1753</v>
+        <v>1309</v>
       </c>
       <c r="F14" s="21">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="G14" s="4">
         <f>IF(F14&gt;=440,7.6%,IF(F14&gt;=380,6.7%,5.8%))</f>
@@ -6427,15 +8141,15 @@
       </c>
       <c r="H14" s="21">
         <f>ROUNDUP(E14*(1-G14),0)</f>
-        <v>1652</v>
+        <v>1234</v>
       </c>
       <c r="I14" s="21">
         <f>H14*F14</f>
-        <v>622804</v>
+        <v>401050</v>
       </c>
       <c r="J14" s="10" t="str">
         <f>IF(AND(F14&lt;450,I14&gt;=620000),"A",IF(AND(F14&lt;450, I14&gt;=550000),"B","C"))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -6449,296 +8163,296 @@
         <v>11</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" ref="D15:D22" si="3">VLOOKUP(C15,$A$3:$G$7,2,FALSE)</f>
+        <f>VLOOKUP(C15,$A$3:$G$7,2,FALSE)</f>
         <v>商品V</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" ref="E15:E22" si="4">VLOOKUP(C15,$A$3:$G$7,7,FALSE)</f>
+        <f>VLOOKUP(C15,$A$3:$G$7,7,FALSE)</f>
         <v>1711</v>
       </c>
       <c r="F15" s="21">
         <v>358</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ref="G15:G22" si="5">IF(F15&gt;=440,7.6%,IF(F15&gt;=380,6.7%,5.8%))</f>
+        <f>IF(F15&gt;=440,7.6%,IF(F15&gt;=380,6.7%,5.8%))</f>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="H15" s="21">
-        <f t="shared" ref="H15:H22" si="6">ROUNDUP(E15*(1-G15),0)</f>
+        <f>ROUNDUP(E15*(1-G15),0)</f>
         <v>1612</v>
       </c>
       <c r="I15" s="21">
-        <f t="shared" ref="I15:I22" si="7">H15*F15</f>
+        <f>H15*F15</f>
         <v>577096</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f t="shared" ref="J15:J22" si="8">IF(AND(F15&lt;450,I15&gt;=620000),"A",IF(AND(F15&lt;450, I15&gt;=550000),"B","C"))</f>
+        <f>IF(AND(F15&lt;450,I15&gt;=620000),"A",IF(AND(F15&lt;450, I15&gt;=550000),"B","C"))</f>
         <v>B</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>商品X</v>
+        <f>VLOOKUP(C16,$A$3:$G$7,2,FALSE)</f>
+        <v>商品Z</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="4"/>
-        <v>1567</v>
+        <f>VLOOKUP(C16,$A$3:$G$7,7,FALSE)</f>
+        <v>1753</v>
       </c>
       <c r="F16" s="21">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="5"/>
-        <v>7.5999999999999998E-2</v>
+        <f>IF(F16&gt;=440,7.6%,IF(F16&gt;=380,6.7%,5.8%))</f>
+        <v>5.7999999999999996E-2</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="6"/>
-        <v>1448</v>
+        <f>ROUNDUP(E16*(1-G16),0)</f>
+        <v>1652</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="7"/>
-        <v>637120</v>
+        <f>H16*F16</f>
+        <v>622804</v>
       </c>
       <c r="J16" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(F16&lt;450,I16&gt;=620000),"A",IF(AND(F16&lt;450, I16&gt;=550000),"B","C"))</f>
         <v>A</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>商品W</v>
+        <f>VLOOKUP(C17,$A$3:$G$7,2,FALSE)</f>
+        <v>商品V</v>
       </c>
       <c r="E17" s="21">
-        <f t="shared" si="4"/>
-        <v>1309</v>
+        <f>VLOOKUP(C17,$A$3:$G$7,7,FALSE)</f>
+        <v>1711</v>
       </c>
       <c r="F17" s="21">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="5"/>
-        <v>5.7999999999999996E-2</v>
+        <f>IF(F17&gt;=440,7.6%,IF(F17&gt;=380,6.7%,5.8%))</f>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H17" s="21">
-        <f t="shared" si="6"/>
-        <v>1234</v>
+        <f>ROUNDUP(E17*(1-G17),0)</f>
+        <v>1597</v>
       </c>
       <c r="I17" s="21">
-        <f t="shared" si="7"/>
-        <v>401050</v>
+        <f>H17*F17</f>
+        <v>606860</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>C</v>
+        <f>IF(AND(F17&lt;450,I17&gt;=620000),"A",IF(AND(F17&lt;450, I17&gt;=550000),"B","C"))</f>
+        <v>B</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>商品W</v>
+        <f>VLOOKUP(C18,$A$3:$G$7,2,FALSE)</f>
+        <v>商品Z</v>
       </c>
       <c r="E18" s="21">
-        <f t="shared" si="4"/>
-        <v>1309</v>
+        <f>VLOOKUP(C18,$A$3:$G$7,7,FALSE)</f>
+        <v>1753</v>
       </c>
       <c r="F18" s="21">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="5"/>
-        <v>7.5999999999999998E-2</v>
+        <f>IF(F18&gt;=440,7.6%,IF(F18&gt;=380,6.7%,5.8%))</f>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H18" s="21">
-        <f t="shared" si="6"/>
-        <v>1210</v>
+        <f>ROUNDUP(E18*(1-G18),0)</f>
+        <v>1636</v>
       </c>
       <c r="I18" s="21">
-        <f t="shared" si="7"/>
-        <v>562650</v>
+        <f>H18*F18</f>
+        <v>674032</v>
       </c>
       <c r="J18" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>C</v>
+        <f>IF(AND(F18&lt;450,I18&gt;=620000),"A",IF(AND(F18&lt;450, I18&gt;=550000),"B","C"))</f>
+        <v>A</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>商品Z</v>
+        <f>VLOOKUP(C19,$A$3:$G$7,2,FALSE)</f>
+        <v>商品Y</v>
       </c>
       <c r="E19" s="21">
-        <f t="shared" si="4"/>
-        <v>1753</v>
+        <f>VLOOKUP(C19,$A$3:$G$7,7,FALSE)</f>
+        <v>1175</v>
       </c>
       <c r="F19" s="21">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="5"/>
+        <f>IF(F19&gt;=440,7.6%,IF(F19&gt;=380,6.7%,5.8%))</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="H19" s="21">
-        <f t="shared" si="6"/>
-        <v>1636</v>
+        <f>ROUNDUP(E19*(1-G19),0)</f>
+        <v>1097</v>
       </c>
       <c r="I19" s="21">
-        <f t="shared" si="7"/>
-        <v>674032</v>
+        <f>H19*F19</f>
+        <v>464031</v>
       </c>
       <c r="J19" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
+        <f>IF(AND(F19&lt;450,I19&gt;=620000),"A",IF(AND(F19&lt;450, I19&gt;=550000),"B","C"))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>商品Y</v>
+        <f>VLOOKUP(C20,$A$3:$G$7,2,FALSE)</f>
+        <v>商品X</v>
       </c>
       <c r="E20" s="21">
-        <f t="shared" si="4"/>
-        <v>1175</v>
+        <f>VLOOKUP(C20,$A$3:$G$7,7,FALSE)</f>
+        <v>1567</v>
       </c>
       <c r="F20" s="21">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="5"/>
+        <f>IF(F20&gt;=440,7.6%,IF(F20&gt;=380,6.7%,5.8%))</f>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="H20" s="21">
-        <f t="shared" si="6"/>
-        <v>1086</v>
+        <f>ROUNDUP(E20*(1-G20),0)</f>
+        <v>1448</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" si="7"/>
-        <v>488700</v>
+        <f>H20*F20</f>
+        <v>637120</v>
       </c>
       <c r="J20" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>C</v>
+        <f>IF(AND(F20&lt;450,I20&gt;=620000),"A",IF(AND(F20&lt;450, I20&gt;=550000),"B","C"))</f>
+        <v>A</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>商品V</v>
+        <f>VLOOKUP(C21,$A$3:$G$7,2,FALSE)</f>
+        <v>商品Y</v>
       </c>
       <c r="E21" s="21">
-        <f t="shared" si="4"/>
-        <v>1711</v>
+        <f>VLOOKUP(C21,$A$3:$G$7,7,FALSE)</f>
+        <v>1175</v>
       </c>
       <c r="F21" s="21">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="5"/>
-        <v>6.7000000000000004E-2</v>
+        <f>IF(F21&gt;=440,7.6%,IF(F21&gt;=380,6.7%,5.8%))</f>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H21" s="21">
-        <f t="shared" si="6"/>
-        <v>1597</v>
+        <f>ROUNDUP(E21*(1-G21),0)</f>
+        <v>1086</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="7"/>
-        <v>606860</v>
+        <f>H21*F21</f>
+        <v>488700</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
+        <f>IF(AND(F21&lt;450,I21&gt;=620000),"A",IF(AND(F21&lt;450, I21&gt;=550000),"B","C"))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>商品Y</v>
+        <f>VLOOKUP(C22,$A$3:$G$7,2,FALSE)</f>
+        <v>商品W</v>
       </c>
       <c r="E22" s="21">
-        <f t="shared" si="4"/>
-        <v>1175</v>
+        <f>VLOOKUP(C22,$A$3:$G$7,7,FALSE)</f>
+        <v>1309</v>
       </c>
       <c r="F22" s="21">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="5"/>
-        <v>6.7000000000000004E-2</v>
+        <f>IF(F22&gt;=440,7.6%,IF(F22&gt;=380,6.7%,5.8%))</f>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H22" s="21">
-        <f t="shared" si="6"/>
-        <v>1097</v>
+        <f>ROUNDUP(E22*(1-G22),0)</f>
+        <v>1210</v>
       </c>
       <c r="I22" s="21">
-        <f t="shared" si="7"/>
-        <v>464031</v>
+        <f>H22*F22</f>
+        <v>562650</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(F22&lt;450,I22&gt;=620000),"A",IF(AND(F22&lt;450, I22&gt;=550000),"B","C"))</f>
         <v>C</v>
       </c>
     </row>
@@ -6769,7 +8483,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21">
-        <f t="shared" ref="I24" si="9">SUM(I14:I22)</f>
+        <f t="shared" ref="I24" si="3">SUM(I14:I22)</f>
         <v>5034343</v>
       </c>
       <c r="J24" s="10"/>
@@ -6789,12 +8503,15 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28">
-        <f t="shared" ref="I25" si="10">AVERAGE(I14:I22)</f>
+        <f t="shared" ref="I25" si="4">AVERAGE(I14:I22)</f>
         <v>559371.4444444445</v>
       </c>
       <c r="J25" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="A14:J22">
+    <sortCondition ref="F13"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A1:G1"/>
@@ -6810,7 +8527,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6821,20 +8538,20 @@
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
@@ -6858,16 +8575,17 @@
       <c r="G2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
-        <v>247</v>
-      </c>
+      <c r="I2" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C3" s="21">
         <v>1820</v>
@@ -6887,8 +8605,8 @@
         <v>106</v>
       </c>
       <c r="I3" s="19"/>
-      <c r="J3" s="20" t="s">
-        <v>248</v>
+      <c r="J3" s="51" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -6896,7 +8614,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C4" s="21">
         <v>1960</v>
@@ -6915,8 +8633,8 @@
         <f t="shared" ref="G4:G9" si="1">ROUNDUP(F4/$J$4*100,0)</f>
         <v>99</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>249</v>
+      <c r="I4" s="25" t="s">
+        <v>231</v>
       </c>
       <c r="J4" s="10">
         <v>213000</v>
@@ -6927,7 +8645,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C5" s="21">
         <v>1730</v>
@@ -6946,8 +8664,8 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>243</v>
+      <c r="I5" s="52" t="s">
+        <v>226</v>
       </c>
       <c r="J5" s="14">
         <v>227000</v>
@@ -6958,7 +8676,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C6" s="21">
         <v>2310</v>
@@ -6978,12 +8696,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C7" s="21">
         <v>1670</v>
@@ -7002,16 +8720,13 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="I7" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C8" s="21">
         <v>2140</v>
@@ -7030,19 +8745,15 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>255</v>
-      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C9" s="21">
         <v>2080</v>
@@ -7061,14 +8772,10 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="21"/>
@@ -7076,12 +8783,8 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="27"/>
-      <c r="I10" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>257</v>
-      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
@@ -7104,15 +8807,15 @@
       <c r="G11" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="A13" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
@@ -7142,7 +8845,7 @@
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C15" s="21">
         <v>1820</v>
@@ -7167,7 +8870,7 @@
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C16" s="21">
         <v>1960</v>
@@ -7192,7 +8895,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C17" s="21">
         <v>1730</v>
@@ -7217,7 +8920,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C18" s="21">
         <v>2310</v>
@@ -7242,7 +8945,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C19" s="21">
         <v>1670</v>
@@ -7267,7 +8970,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C20" s="21">
         <v>2140</v>
@@ -7292,7 +8995,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C21" s="21">
         <v>2080</v>
@@ -7342,15 +9045,15 @@
       <c r="G23" s="29"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="22" t="s">
@@ -7360,16 +9063,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>24</v>
@@ -7380,7 +9083,7 @@
         <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C27" s="21">
         <f t="shared" ref="C27:C33" si="6">VLOOKUP(A27,$A$3:$G$9,6,FALSE)</f>
@@ -7408,7 +9111,7 @@
         <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C28" s="21">
         <f t="shared" si="6"/>
@@ -7436,7 +9139,7 @@
         <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C29" s="21">
         <f t="shared" si="6"/>
@@ -7464,7 +9167,7 @@
         <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C30" s="21">
         <f t="shared" si="6"/>
@@ -7492,7 +9195,7 @@
         <v>106</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C31" s="21">
         <f t="shared" si="6"/>
@@ -7520,7 +9223,7 @@
         <v>103</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C32" s="21">
         <f t="shared" si="6"/>
@@ -7548,7 +9251,7 @@
         <v>101</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C33" s="21">
         <f t="shared" si="6"/>
@@ -7583,7 +9286,7 @@
     <row r="35" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C35" s="32">
         <f>SUM(C27:C33)</f>
@@ -7604,10 +9307,11 @@
   <sortState ref="A27:G33">
     <sortCondition ref="F26"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A25:G25"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7619,8 +9323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD8670B-F522-4C5F-8886-27FFFDA4B1BA}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7635,14 +9339,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
@@ -7663,10 +9367,10 @@
       <c r="F2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
@@ -7690,7 +9394,7 @@
         <v>96</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="I3" s="34">
         <v>25000</v>
@@ -7718,7 +9422,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -7739,11 +9443,9 @@
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="H5" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
@@ -7766,12 +9468,9 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
@@ -7794,14 +9493,11 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="H7" s="8">
-        <v>110</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -7822,12 +9518,9 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>265</v>
-      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
@@ -7898,18 +9591,18 @@
       <c r="F12" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
@@ -7931,7 +9624,7 @@
         <v>46</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>61</v>
@@ -8333,15 +10026,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
@@ -8371,7 +10064,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C3" s="21">
         <v>709</v>
@@ -8397,7 +10090,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C4" s="21">
         <v>756</v>
@@ -8423,7 +10116,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C5" s="21">
         <v>437</v>
@@ -8449,7 +10142,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="C6" s="21">
         <v>834</v>
@@ -8475,7 +10168,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C7" s="21">
         <v>752</v>
@@ -8523,19 +10216,19 @@
       <c r="G9" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
@@ -8966,7 +10659,7 @@
     <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -9013,8 +10706,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9030,14 +10723,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
@@ -9058,10 +10751,10 @@
       <c r="F2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" s="45"/>
+      <c r="H2" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
@@ -9081,12 +10774,12 @@
         <v>2207296</v>
       </c>
       <c r="F3" s="27">
-        <f>IF(E3&gt;=2000000,E3*11.4%,E3*12.3% )</f>
-        <v>251631.74400000001</v>
+        <f>ROUNDUP(IF(E3&gt;=2000000,E3*11.4%,E3*12.3% ),0)</f>
+        <v>251632</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="20" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -9107,11 +10800,11 @@
         <v>2374008</v>
       </c>
       <c r="F4" s="27">
-        <f t="shared" ref="F4:F9" si="1">IF(E4&gt;=2000000,E4*11.4%,E4*12.3% )</f>
-        <v>270636.91200000001</v>
+        <f t="shared" ref="F4:F9" si="1">ROUNDUP(IF(E4&gt;=2000000,E4*11.4%,E4*12.3% ),0)</f>
+        <v>270637</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="I4" s="10">
         <v>728</v>
@@ -9136,10 +10829,10 @@
       </c>
       <c r="F5" s="27">
         <f t="shared" si="1"/>
-        <v>199235.40000000002</v>
+        <v>199236</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="I5" s="14">
         <v>816</v>
@@ -9164,7 +10857,7 @@
       </c>
       <c r="F6" s="27">
         <f t="shared" si="1"/>
-        <v>233620.29600000003</v>
+        <v>233621</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -9186,7 +10879,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" si="1"/>
-        <v>243201.50400000002</v>
+        <v>243202</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
@@ -9211,7 +10904,7 @@
       </c>
       <c r="F8" s="27">
         <f t="shared" si="1"/>
-        <v>270553.92</v>
+        <v>270554</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
@@ -9236,7 +10929,7 @@
       </c>
       <c r="F9" s="27">
         <f t="shared" si="1"/>
-        <v>236664.79200000002</v>
+        <v>236665</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
@@ -9272,18 +10965,18 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" si="2"/>
-        <v>1705544.568</v>
+        <v>1705547</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="A13" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
@@ -9319,12 +11012,12 @@
         <v>2683</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" ref="E15:E21" si="3">$I$4*D15</f>
-        <v>1953224</v>
+        <f>$I$5*D15</f>
+        <v>2189328</v>
       </c>
       <c r="F15" s="27">
-        <f>IF(E15&gt;=2000000,E15*11.4%,E15*12.3% )</f>
-        <v>240246.55200000003</v>
+        <f>ROUNDUP(IF(E15&gt;=2000000,E15*11.4%,E15*12.3% ),0)</f>
+        <v>249584</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -9341,12 +11034,12 @@
         <v>2873</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="3"/>
-        <v>2091544</v>
+        <f t="shared" ref="E16:E21" si="3">$I$5*D16</f>
+        <v>2344368</v>
       </c>
       <c r="F16" s="27">
-        <f t="shared" ref="F16:F21" si="4">IF(E16&gt;=2000000,E16*11.4%,E16*12.3% )</f>
-        <v>238436.016</v>
+        <f t="shared" ref="F16:F21" si="4">ROUNDUP(IF(E16&gt;=2000000,E16*11.4%,E16*12.3% ),0)</f>
+        <v>267258</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -9364,11 +11057,11 @@
       </c>
       <c r="E17" s="21">
         <f t="shared" si="3"/>
-        <v>1889888</v>
+        <v>2118336</v>
       </c>
       <c r="F17" s="27">
         <f t="shared" si="4"/>
-        <v>232456.22400000002</v>
+        <v>241491</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -9386,11 +11079,11 @@
       </c>
       <c r="E18" s="21">
         <f t="shared" si="3"/>
-        <v>1565200</v>
+        <v>1754400</v>
       </c>
       <c r="F18" s="27">
         <f t="shared" si="4"/>
-        <v>192519.6</v>
+        <v>215792</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -9408,11 +11101,11 @@
       </c>
       <c r="E19" s="21">
         <f t="shared" si="3"/>
-        <v>2339792</v>
+        <v>2622624</v>
       </c>
       <c r="F19" s="27">
         <f t="shared" si="4"/>
-        <v>266736.288</v>
+        <v>298980</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -9430,11 +11123,11 @@
       </c>
       <c r="E20" s="21">
         <f t="shared" si="3"/>
-        <v>1512784</v>
+        <v>1695648</v>
       </c>
       <c r="F20" s="27">
         <f t="shared" si="4"/>
-        <v>186072.43200000003</v>
+        <v>208565</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -9452,11 +11145,11 @@
       </c>
       <c r="E21" s="21">
         <f t="shared" si="3"/>
-        <v>1729000</v>
+        <v>1938000</v>
       </c>
       <c r="F21" s="27">
         <f t="shared" si="4"/>
-        <v>212667.00000000003</v>
+        <v>238374</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -9482,24 +11175,24 @@
       </c>
       <c r="E23" s="28">
         <f t="shared" si="5"/>
-        <v>13081432</v>
+        <v>14662704</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" si="5"/>
-        <v>1569134.112</v>
+        <v>1720044</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="A25" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="22" t="s">
@@ -9509,50 +11202,50 @@
         <v>82</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="21">
         <f>VLOOKUP(A27,$A$3:$F$9,6,0)</f>
-        <v>251631.74400000001</v>
+        <v>270637</v>
       </c>
       <c r="D27" s="21">
         <f>VLOOKUP(A27,$A$15:$F$21,6,0)</f>
-        <v>240246.55200000003</v>
+        <v>267258</v>
       </c>
       <c r="E27" s="21">
         <f>INT((C27+D27)*5.7%)</f>
-        <v>28037</v>
+        <v>30660</v>
       </c>
       <c r="F27" s="31">
         <f>C27+D27+E27</f>
-        <v>519915.29600000003</v>
+        <v>568555</v>
       </c>
       <c r="G27" s="4">
         <f>F27/$F$35</f>
-        <v>0.15020672506022306</v>
+        <v>0.15702265243463753</v>
       </c>
       <c r="H27" s="10" t="str">
         <f>IF(AND(C27&gt;=$C$36,D27&gt;=$D$36),"###",IF(OR(C27&gt;=$C$36,D27&gt;=$D$36),"##", "#"))</f>
@@ -9561,193 +11254,193 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C28" s="21">
-        <f t="shared" ref="C28:C33" si="6">VLOOKUP(A28,$A$3:$F$9,6,0)</f>
-        <v>270636.91200000001</v>
+        <f>VLOOKUP(A28,$A$3:$F$9,6,0)</f>
+        <v>270554</v>
       </c>
       <c r="D28" s="21">
-        <f t="shared" ref="D28:D33" si="7">VLOOKUP(A28,$A$15:$F$21,6,0)</f>
-        <v>238436.016</v>
+        <f>VLOOKUP(A28,$A$15:$F$21,6,0)</f>
+        <v>208565</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" ref="E28:E33" si="8">INT((C28+D28)*5.7%)</f>
-        <v>29017</v>
+        <f>INT((C28+D28)*5.7%)</f>
+        <v>27309</v>
       </c>
       <c r="F28" s="31">
-        <f t="shared" ref="F28:F33" si="9">C28+D28+E28</f>
-        <v>538089.92800000007</v>
+        <f>C28+D28+E28</f>
+        <v>506428</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ref="G28:G33" si="10">F28/$F$35</f>
-        <v>0.15545748796890799</v>
+        <f>F28/$F$35</f>
+        <v>0.13986451236409603</v>
       </c>
       <c r="H28" s="10" t="str">
-        <f t="shared" ref="H28:H33" si="11">IF(AND(C28&gt;=$C$36,D28&gt;=$D$36),"###",IF(OR(C28&gt;=$C$36,D28&gt;=$D$36),"##", "#"))</f>
-        <v>###</v>
+        <f>IF(AND(C28&gt;=$C$36,D28&gt;=$D$36),"###",IF(OR(C28&gt;=$C$36,D28&gt;=$D$36),"##", "#"))</f>
+        <v>##</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="21">
-        <f t="shared" si="6"/>
-        <v>199235.40000000002</v>
+        <f>VLOOKUP(A29,$A$3:$F$9,6,0)</f>
+        <v>251632</v>
       </c>
       <c r="D29" s="21">
-        <f t="shared" si="7"/>
-        <v>232456.22400000002</v>
+        <f>VLOOKUP(A29,$A$15:$F$21,6,0)</f>
+        <v>249584</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="8"/>
-        <v>24606</v>
+        <f>INT((C29+D29)*5.7%)</f>
+        <v>28569</v>
       </c>
       <c r="F29" s="31">
-        <f t="shared" si="9"/>
-        <v>456297.62400000007</v>
+        <f>C29+D29+E29</f>
+        <v>529785</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="10"/>
-        <v>0.13182718854611472</v>
+        <f>F29/$F$35</f>
+        <v>0.14631521298745845</v>
       </c>
       <c r="H29" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>##</v>
+        <f>IF(AND(C29&gt;=$C$36,D29&gt;=$D$36),"###",IF(OR(C29&gt;=$C$36,D29&gt;=$D$36),"##", "#"))</f>
+        <v>###</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="21">
-        <f t="shared" si="6"/>
-        <v>233620.29600000003</v>
+        <f>VLOOKUP(A30,$A$3:$F$9,6,0)</f>
+        <v>243202</v>
       </c>
       <c r="D30" s="21">
-        <f t="shared" si="7"/>
-        <v>192519.6</v>
+        <f>VLOOKUP(A30,$A$15:$F$21,6,0)</f>
+        <v>298980</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="8"/>
-        <v>24289</v>
+        <f>INT((C30+D30)*5.7%)</f>
+        <v>30904</v>
       </c>
       <c r="F30" s="31">
-        <f t="shared" si="9"/>
-        <v>450428.89600000007</v>
+        <f>C30+D30+E30</f>
+        <v>573086</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="10"/>
-        <v>0.1301316769504158</v>
+        <f>F30/$F$35</f>
+        <v>0.15827401710152347</v>
       </c>
       <c r="H30" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>#</v>
+        <f>IF(AND(C30&gt;=$C$36,D30&gt;=$D$36),"###",IF(OR(C30&gt;=$C$36,D30&gt;=$D$36),"##", "#"))</f>
+        <v>##</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" s="21">
-        <f t="shared" si="6"/>
-        <v>243201.50400000002</v>
+        <f>VLOOKUP(A31,$A$3:$F$9,6,0)</f>
+        <v>236665</v>
       </c>
       <c r="D31" s="21">
-        <f t="shared" si="7"/>
-        <v>266736.288</v>
+        <f>VLOOKUP(A31,$A$15:$F$21,6,0)</f>
+        <v>238374</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="8"/>
-        <v>29066</v>
+        <f>INT((C31+D31)*5.7%)</f>
+        <v>27077</v>
       </c>
       <c r="F31" s="31">
-        <f t="shared" si="9"/>
-        <v>539003.79200000002</v>
+        <f>C31+D31+E31</f>
+        <v>502116</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="10"/>
-        <v>0.15572150889625233</v>
+        <f>F31/$F$35</f>
+        <v>0.13867363078307368</v>
       </c>
       <c r="H31" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>##</v>
+        <f>IF(AND(C31&gt;=$C$36,D31&gt;=$D$36),"###",IF(OR(C31&gt;=$C$36,D31&gt;=$D$36),"##", "#"))</f>
+        <v>#</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="21">
-        <f t="shared" si="6"/>
-        <v>270553.92</v>
+        <f>VLOOKUP(A32,$A$3:$F$9,6,0)</f>
+        <v>233621</v>
       </c>
       <c r="D32" s="21">
-        <f t="shared" si="7"/>
-        <v>186072.43200000003</v>
+        <f>VLOOKUP(A32,$A$15:$F$21,6,0)</f>
+        <v>215792</v>
       </c>
       <c r="E32" s="21">
-        <f t="shared" si="8"/>
-        <v>26027</v>
+        <f>INT((C32+D32)*5.7%)</f>
+        <v>25616</v>
       </c>
       <c r="F32" s="31">
-        <f t="shared" si="9"/>
-        <v>482653.35200000001</v>
+        <f>C32+D32+E32</f>
+        <v>475029</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="10"/>
-        <v>0.13944152038038723</v>
+        <f>F32/$F$35</f>
+        <v>0.13119278445071</v>
       </c>
       <c r="H32" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>##</v>
+        <f>IF(AND(C32&gt;=$C$36,D32&gt;=$D$36),"###",IF(OR(C32&gt;=$C$36,D32&gt;=$D$36),"##", "#"))</f>
+        <v>#</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C33" s="21">
-        <f t="shared" si="6"/>
-        <v>236664.79200000002</v>
+        <f>VLOOKUP(A33,$A$3:$F$9,6,0)</f>
+        <v>199236</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" si="7"/>
-        <v>212667.00000000003</v>
+        <f>VLOOKUP(A33,$A$15:$F$21,6,0)</f>
+        <v>241491</v>
       </c>
       <c r="E33" s="21">
-        <f t="shared" si="8"/>
-        <v>25611</v>
+        <f>INT((C33+D33)*5.7%)</f>
+        <v>25121</v>
       </c>
       <c r="F33" s="31">
-        <f t="shared" si="9"/>
-        <v>474942.79200000002</v>
+        <f>C33+D33+E33</f>
+        <v>465848</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="10"/>
-        <v>0.13721389219769889</v>
+        <f>F33/$F$35</f>
+        <v>0.12865718987850081</v>
       </c>
       <c r="H33" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(AND(C33&gt;=$C$36,D33&gt;=$D$36),"###",IF(OR(C33&gt;=$C$36,D33&gt;=$D$36),"##", "#"))</f>
         <v>#</v>
       </c>
     </row>
@@ -9764,23 +11457,23 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="15" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C35" s="31">
         <f>SUM(C27:C33)</f>
-        <v>1705544.568</v>
+        <v>1705547</v>
       </c>
       <c r="D35" s="31">
-        <f t="shared" ref="D35:F35" si="12">SUM(D27:D33)</f>
-        <v>1569134.112</v>
+        <f t="shared" ref="D35:F35" si="6">SUM(D27:D33)</f>
+        <v>1720044</v>
       </c>
       <c r="E35" s="31">
-        <f t="shared" si="12"/>
-        <v>186653</v>
+        <f t="shared" si="6"/>
+        <v>195256</v>
       </c>
       <c r="F35" s="31">
-        <f t="shared" si="12"/>
-        <v>3461331.68</v>
+        <f t="shared" si="6"/>
+        <v>3620847</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="10"/>
@@ -9788,28 +11481,31 @@
     <row r="36" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C36" s="32">
         <f>AVERAGE(C27:C33)</f>
-        <v>243649.22399999999</v>
+        <v>243649.57142857142</v>
       </c>
       <c r="D36" s="32">
-        <f t="shared" ref="D36:F36" si="13">AVERAGE(D27:D33)</f>
-        <v>224162.016</v>
+        <f t="shared" ref="D36:F36" si="7">AVERAGE(D27:D33)</f>
+        <v>245720.57142857142</v>
       </c>
       <c r="E36" s="32">
-        <f t="shared" si="13"/>
-        <v>26664.714285714286</v>
+        <f t="shared" si="7"/>
+        <v>27893.714285714286</v>
       </c>
       <c r="F36" s="32">
-        <f t="shared" si="13"/>
-        <v>494475.95428571431</v>
+        <f t="shared" si="7"/>
+        <v>517263.85714285716</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="A27:H33">
+    <sortCondition descending="1" ref="C26"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A1:F1"/>
@@ -9826,33 +11522,33 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
@@ -9904,7 +11600,7 @@
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="20" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -9933,7 +11629,7 @@
         <v>264000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="J4" s="27">
         <v>12940</v>
@@ -9965,7 +11661,7 @@
         <v>336000</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="J5" s="29">
         <v>13667</v>
@@ -10050,7 +11746,7 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="20" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -10079,7 +11775,7 @@
         <v>432000</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="J9" s="27">
         <v>2400000</v>
@@ -10094,7 +11790,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
       <c r="I10" s="11" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="J10" s="29">
         <v>2800000</v>
@@ -10121,15 +11817,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="A13" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
@@ -10365,10 +12061,240 @@
         <v>2800000</v>
       </c>
     </row>
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="21">
+        <f t="shared" ref="C27:C33" si="8">VLOOKUP(A27,$A$3:$G$9,7,0)</f>
+        <v>432000</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" ref="D27:D33" si="9">VLOOKUP(A27,$A$15:$G$21,7,0)</f>
+        <v>504000</v>
+      </c>
+      <c r="E27" s="31">
+        <f t="shared" ref="E27:E33" si="10">C27+D27</f>
+        <v>936000</v>
+      </c>
+      <c r="F27" s="10" t="str">
+        <f t="shared" ref="F27:F33" si="11">IF(AND(C27&gt;=380000,D27&gt;=420000),"***", IF(OR(C27&gt;=380000,D27&gt;=420000),"**","*"))</f>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="8"/>
+        <v>384000</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" si="9"/>
+        <v>448000</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="10"/>
+        <v>832000</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="8"/>
+        <v>360000</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="9"/>
+        <v>420000</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="10"/>
+        <v>780000</v>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="8"/>
+        <v>336000</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="9"/>
+        <v>420000</v>
+      </c>
+      <c r="E30" s="31">
+        <f t="shared" si="10"/>
+        <v>756000</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="8"/>
+        <v>384000</v>
+      </c>
+      <c r="D31" s="21">
+        <f t="shared" si="9"/>
+        <v>336000</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="10"/>
+        <v>720000</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="8"/>
+        <v>264000</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="9"/>
+        <v>364000</v>
+      </c>
+      <c r="E32" s="31">
+        <f t="shared" si="10"/>
+        <v>628000</v>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="21">
+        <f t="shared" si="8"/>
+        <v>240000</v>
+      </c>
+      <c r="D33" s="21">
+        <f t="shared" si="9"/>
+        <v>308000</v>
+      </c>
+      <c r="E33" s="31">
+        <f t="shared" si="10"/>
+        <v>548000</v>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="32">
+        <f>SUM(C27:C33)</f>
+        <v>2400000</v>
+      </c>
+      <c r="D35" s="32">
+        <f t="shared" ref="D35:E35" si="12">SUM(D27:D33)</f>
+        <v>2800000</v>
+      </c>
+      <c r="E35" s="32">
+        <f t="shared" si="12"/>
+        <v>5200000</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <sortState ref="A27:G33">
+    <sortCondition descending="1" ref="E26"/>
+  </sortState>
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A25:G25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10380,7 +12306,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10395,15 +12321,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="38" t="s">
@@ -10427,13 +12353,19 @@
       <c r="G2" s="40" t="s">
         <v>111</v>
       </c>
+      <c r="I2" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="C3" s="21">
         <v>2784500</v>
@@ -10450,9 +12382,15 @@
         <f>INT(E3*4.6%)</f>
         <v>3458</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="44">
         <f>E3+F3</f>
         <v>78640</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>8650</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -10460,7 +12398,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C4" s="21">
         <v>1966600</v>
@@ -10477,17 +12415,23 @@
         <f t="shared" ref="F4:F7" si="2">INT(E4*4.6%)</f>
         <v>2261</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="44">
         <f t="shared" ref="G4:G7" si="3">E4+F4</f>
         <v>51426</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C5" s="21">
         <v>3107900</v>
@@ -10504,9 +12448,15 @@
         <f t="shared" si="2"/>
         <v>4145</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="44">
         <f t="shared" si="3"/>
         <v>94275</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3</v>
+      </c>
+      <c r="J5" s="14">
+        <v>6480</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -10514,7 +12464,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C6" s="21">
         <v>2345300</v>
@@ -10531,7 +12481,7 @@
         <f t="shared" si="2"/>
         <v>2912</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="44">
         <f t="shared" si="3"/>
         <v>66236</v>
       </c>
@@ -10541,7 +12491,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C7" s="21">
         <v>3271200</v>
@@ -10558,7 +12508,7 @@
         <f t="shared" si="2"/>
         <v>4363</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="44">
         <f t="shared" si="3"/>
         <v>99228</v>
       </c>
@@ -10590,25 +12540,25 @@
         <f t="shared" si="4"/>
         <v>3427.8</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="45">
         <f t="shared" si="4"/>
         <v>77961</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="38" t="s">
@@ -10618,16 +12568,16 @@
         <v>114</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>115</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>116</v>
@@ -10674,15 +12624,15 @@
         <v>3</v>
       </c>
       <c r="I13" s="21">
-        <f t="shared" ref="I13:I20" si="8">IF(H13=1,8650,IF(H13=2,7920, IF(H13=3,6480,0)))</f>
+        <f>VLOOKUP(H13,$I$3:$J$5,2,0)</f>
         <v>6480</v>
       </c>
       <c r="J13" s="31">
-        <f t="shared" ref="J13:J20" si="9">F13+G13+I13</f>
+        <f t="shared" ref="J13:J20" si="8">F13+G13+I13</f>
         <v>64518</v>
       </c>
       <c r="K13" s="10" t="str">
-        <f t="shared" ref="K13:K20" si="10">IF(AND(NOT(H13=2),J13&gt;=120000),"V",IF(AND(NOT(H13=2),J13&gt;=100000),"W","X"))</f>
+        <f t="shared" ref="K13:K20" si="9">IF(AND(NOT(H13=2),J13&gt;=120000),"V",IF(AND(NOT(H13=2),J13&gt;=100000),"W","X"))</f>
         <v>X</v>
       </c>
     </row>
@@ -10715,15 +12665,15 @@
         <v>1</v>
       </c>
       <c r="I14" s="21">
+        <f t="shared" ref="I14:I20" si="10">VLOOKUP(H14,$I$3:$J$5,2,0)</f>
+        <v>8650</v>
+      </c>
+      <c r="J14" s="31">
         <f t="shared" si="8"/>
-        <v>8650</v>
-      </c>
-      <c r="J14" s="31">
+        <v>69994</v>
+      </c>
+      <c r="K14" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>69994</v>
-      </c>
-      <c r="K14" s="10" t="str">
-        <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
@@ -10756,15 +12706,15 @@
         <v>1</v>
       </c>
       <c r="I15" s="21">
+        <f t="shared" si="10"/>
+        <v>8650</v>
+      </c>
+      <c r="J15" s="31">
         <f t="shared" si="8"/>
-        <v>8650</v>
-      </c>
-      <c r="J15" s="31">
+        <v>100435</v>
+      </c>
+      <c r="K15" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>100435</v>
-      </c>
-      <c r="K15" s="10" t="str">
-        <f t="shared" si="10"/>
         <v>W</v>
       </c>
     </row>
@@ -10797,15 +12747,15 @@
         <v>2</v>
       </c>
       <c r="I16" s="21">
+        <f t="shared" si="10"/>
+        <v>7920</v>
+      </c>
+      <c r="J16" s="31">
         <f t="shared" si="8"/>
-        <v>7920</v>
-      </c>
-      <c r="J16" s="31">
+        <v>107148</v>
+      </c>
+      <c r="K16" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>107148</v>
-      </c>
-      <c r="K16" s="10" t="str">
-        <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
@@ -10838,15 +12788,15 @@
         <v>1</v>
       </c>
       <c r="I17" s="21">
+        <f t="shared" si="10"/>
+        <v>8650</v>
+      </c>
+      <c r="J17" s="31">
         <f t="shared" si="8"/>
-        <v>8650</v>
-      </c>
-      <c r="J17" s="31">
+        <v>108986</v>
+      </c>
+      <c r="K17" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>108986</v>
-      </c>
-      <c r="K17" s="10" t="str">
-        <f t="shared" si="10"/>
         <v>W</v>
       </c>
     </row>
@@ -10879,15 +12829,15 @@
         <v>3</v>
       </c>
       <c r="I18" s="21">
+        <f t="shared" si="10"/>
+        <v>6480</v>
+      </c>
+      <c r="J18" s="31">
         <f t="shared" si="8"/>
-        <v>6480</v>
-      </c>
-      <c r="J18" s="31">
+        <v>120508</v>
+      </c>
+      <c r="K18" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>120508</v>
-      </c>
-      <c r="K18" s="10" t="str">
-        <f t="shared" si="10"/>
         <v>V</v>
       </c>
     </row>
@@ -10920,15 +12870,15 @@
         <v>3</v>
       </c>
       <c r="I19" s="21">
+        <f t="shared" si="10"/>
+        <v>6480</v>
+      </c>
+      <c r="J19" s="31">
         <f t="shared" si="8"/>
-        <v>6480</v>
-      </c>
-      <c r="J19" s="31">
+        <v>124998</v>
+      </c>
+      <c r="K19" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>124998</v>
-      </c>
-      <c r="K19" s="10" t="str">
-        <f t="shared" si="10"/>
         <v>V</v>
       </c>
     </row>
@@ -10961,15 +12911,15 @@
         <v>2</v>
       </c>
       <c r="I20" s="21">
+        <f t="shared" si="10"/>
+        <v>7920</v>
+      </c>
+      <c r="J20" s="31">
         <f t="shared" si="8"/>
-        <v>7920</v>
-      </c>
-      <c r="J20" s="31">
+        <v>139043</v>
+      </c>
+      <c r="K20" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>139043</v>
-      </c>
-      <c r="K20" s="10" t="str">
-        <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
@@ -11035,7 +12985,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11052,17 +13002,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="38" t="s">
@@ -11120,10 +13070,10 @@
         <f>VLOOKUP(C3,$L$3:$N$6,3,0)</f>
         <v>7340</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="47">
         <v>45109</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="47">
         <v>45117</v>
       </c>
       <c r="H3" s="2">
@@ -11138,7 +13088,7 @@
         <v>11</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="N3" s="27">
         <v>8670</v>
@@ -11162,10 +13112,10 @@
         <f t="shared" ref="E4:E9" si="1">VLOOKUP(C4,$L$3:$N$6,3,0)</f>
         <v>8280</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="47">
         <v>45112</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="47">
         <v>45120</v>
       </c>
       <c r="H4" s="2">
@@ -11180,7 +13130,7 @@
         <v>12</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="N4" s="27">
         <v>7340</v>
@@ -11204,10 +13154,10 @@
         <f t="shared" si="1"/>
         <v>8670</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="47">
         <v>45114</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="47">
         <v>45121</v>
       </c>
       <c r="H5" s="2">
@@ -11222,7 +13172,7 @@
         <v>13</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="N5" s="27">
         <v>8280</v>
@@ -11246,10 +13196,10 @@
         <f t="shared" si="1"/>
         <v>8280</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="47">
         <v>45117</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="47">
         <v>45123</v>
       </c>
       <c r="H6" s="2">
@@ -11264,7 +13214,7 @@
         <v>14</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="N6" s="29">
         <v>9630</v>
@@ -11288,10 +13238,10 @@
         <f t="shared" si="1"/>
         <v>7340</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="47">
         <v>45120</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="47">
         <v>45132</v>
       </c>
       <c r="H7" s="2">
@@ -11321,10 +13271,10 @@
         <f t="shared" si="1"/>
         <v>9630</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="47">
         <v>45122</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="47">
         <v>45133</v>
       </c>
       <c r="H8" s="2">
@@ -11354,10 +13304,10 @@
         <f t="shared" si="1"/>
         <v>8670</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="47">
         <v>45125</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="47">
         <v>45135</v>
       </c>
       <c r="H9" s="2">
@@ -11394,24 +13344,24 @@
         <f t="shared" ref="H11:I11" si="4">SUM(H3:H9)</f>
         <v>69</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="45">
         <f t="shared" si="4"/>
         <v>379506</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="38" t="s">
@@ -11740,7 +13690,7 @@
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="16" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C23" s="28">
         <f>SUM(C15:C21)</f>
